--- a/Documents/Cord/Cord Documents 3/P1670T1R.xlsx
+++ b/Documents/Cord/Cord Documents 3/P1670T1R.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/03 IATF/Condition Standard/Chemical/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2CF81359-C36B-4D31-B173-B6B1FCA477DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A05C6BD-34F3-4BFB-8CE4-BD48029DDC4C}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C873BC16-31EA-4BEF-B7AF-309D161061D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="AX 09PV3 Ver.1(2.5%)P1670T1R" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -684,11 +678,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="189" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1864,7 +1858,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,18 +1925,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1964,9 +1949,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2054,19 +2036,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,16 +2060,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,7 +2081,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,13 +2093,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="26" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2201,37 +2177,31 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="27" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="27" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="27" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,22 +2210,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="26" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2282,460 +2249,487 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="26" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="26" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="26" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3" xr:uid="{47C6B5FC-1B97-4766-8D3C-79F22DCE6E84}"/>
-    <cellStyle name="標準_20140217_レシピ" xfId="2" xr:uid="{1C023D06-E5CC-4A02-ABBF-24DCE58EAA47}"/>
+    <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="3"/>
+    <cellStyle name="標準_20140217_レシピ" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2770,7 +2764,7 @@
         <xdr:cNvPr id="2" name="Picture 26" descr="TORAY_blue_set(B).png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55367BF-3338-4112-84C2-380C1F51A2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D55367BF-3338-4112-84C2-380C1F51A2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,7 +2776,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2805,14 +2799,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2844,7 +2838,7 @@
         <xdr:cNvPr id="3" name="Picture 26" descr="TORAY_blue_set(B).png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EFB262-07A0-4645-A7B7-3A490ADB2609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06EFB262-07A0-4645-A7B7-3A490ADB2609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2850,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2879,14 +2873,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2918,7 +2912,7 @@
         <xdr:cNvPr id="4" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B299FACD-21E2-4260-8216-15653F82BC22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B299FACD-21E2-4260-8216-15653F82BC22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,7 +2961,7 @@
         <xdr:cNvPr id="5" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974E71A2-BB27-44EF-B221-455B24A930A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{974E71A2-BB27-44EF-B221-455B24A930A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3010,7 @@
         <xdr:cNvPr id="6" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7656CEE6-1597-4B5F-B0D8-B262A86F8125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7656CEE6-1597-4B5F-B0D8-B262A86F8125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3059,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB83B13-729B-404B-AEA6-676D9A22A609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DB83B13-729B-404B-AEA6-676D9A22A609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3142,7 +3136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3194,7 +3188,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3388,914 +3382,914 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8A0BC3-8E7B-47DA-8208-C9ADE9C2F407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q1048576"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="2" width="9.3984375" style="290" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" style="290" customWidth="1"/>
-    <col min="5" max="6" width="8.59765625" style="290" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" style="290" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="290" customWidth="1"/>
-    <col min="9" max="9" width="12.296875" style="290" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11" max="11" width="4" style="290" customWidth="1"/>
-    <col min="12" max="250" width="9.09765625" style="290"/>
-    <col min="251" max="252" width="9.3984375" style="290" customWidth="1"/>
-    <col min="253" max="253" width="15.59765625" style="290" customWidth="1"/>
-    <col min="254" max="254" width="16.296875" style="290" customWidth="1"/>
-    <col min="255" max="256" width="8.59765625" style="290" customWidth="1"/>
-    <col min="257" max="257" width="12.296875" style="290" customWidth="1"/>
-    <col min="258" max="258" width="14.3984375" style="290" customWidth="1"/>
-    <col min="259" max="259" width="12.296875" style="290" customWidth="1"/>
-    <col min="260" max="260" width="15.59765625" style="290" customWidth="1"/>
-    <col min="261" max="261" width="4" style="290" customWidth="1"/>
-    <col min="262" max="262" width="13.69921875" style="290" customWidth="1"/>
-    <col min="263" max="263" width="13.3984375" style="290" customWidth="1"/>
-    <col min="264" max="266" width="9.09765625" style="290"/>
-    <col min="267" max="267" width="14.8984375" style="290" customWidth="1"/>
-    <col min="268" max="506" width="9.09765625" style="290"/>
-    <col min="507" max="508" width="9.3984375" style="290" customWidth="1"/>
-    <col min="509" max="509" width="15.59765625" style="290" customWidth="1"/>
-    <col min="510" max="510" width="16.296875" style="290" customWidth="1"/>
-    <col min="511" max="512" width="8.59765625" style="290" customWidth="1"/>
-    <col min="513" max="513" width="12.296875" style="290" customWidth="1"/>
-    <col min="514" max="514" width="14.3984375" style="290" customWidth="1"/>
-    <col min="515" max="515" width="12.296875" style="290" customWidth="1"/>
-    <col min="516" max="516" width="15.59765625" style="290" customWidth="1"/>
-    <col min="517" max="517" width="4" style="290" customWidth="1"/>
-    <col min="518" max="518" width="13.69921875" style="290" customWidth="1"/>
-    <col min="519" max="519" width="13.3984375" style="290" customWidth="1"/>
-    <col min="520" max="522" width="9.09765625" style="290"/>
-    <col min="523" max="523" width="14.8984375" style="290" customWidth="1"/>
-    <col min="524" max="762" width="9.09765625" style="290"/>
-    <col min="763" max="764" width="9.3984375" style="290" customWidth="1"/>
-    <col min="765" max="765" width="15.59765625" style="290" customWidth="1"/>
-    <col min="766" max="766" width="16.296875" style="290" customWidth="1"/>
-    <col min="767" max="768" width="8.59765625" style="290" customWidth="1"/>
-    <col min="769" max="769" width="12.296875" style="290" customWidth="1"/>
-    <col min="770" max="770" width="14.3984375" style="290" customWidth="1"/>
-    <col min="771" max="771" width="12.296875" style="290" customWidth="1"/>
-    <col min="772" max="772" width="15.59765625" style="290" customWidth="1"/>
-    <col min="773" max="773" width="4" style="290" customWidth="1"/>
-    <col min="774" max="774" width="13.69921875" style="290" customWidth="1"/>
-    <col min="775" max="775" width="13.3984375" style="290" customWidth="1"/>
-    <col min="776" max="778" width="9.09765625" style="290"/>
-    <col min="779" max="779" width="14.8984375" style="290" customWidth="1"/>
-    <col min="780" max="1018" width="9.09765625" style="290"/>
-    <col min="1019" max="1020" width="9.3984375" style="290" customWidth="1"/>
-    <col min="1021" max="1021" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1022" max="1022" width="16.296875" style="290" customWidth="1"/>
-    <col min="1023" max="1024" width="8.59765625" style="290" customWidth="1"/>
-    <col min="1025" max="1025" width="12.296875" style="290" customWidth="1"/>
-    <col min="1026" max="1026" width="14.3984375" style="290" customWidth="1"/>
-    <col min="1027" max="1027" width="12.296875" style="290" customWidth="1"/>
-    <col min="1028" max="1028" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1029" max="1029" width="4" style="290" customWidth="1"/>
-    <col min="1030" max="1030" width="13.69921875" style="290" customWidth="1"/>
-    <col min="1031" max="1031" width="13.3984375" style="290" customWidth="1"/>
-    <col min="1032" max="1034" width="9.09765625" style="290"/>
-    <col min="1035" max="1035" width="14.8984375" style="290" customWidth="1"/>
-    <col min="1036" max="1274" width="9.09765625" style="290"/>
-    <col min="1275" max="1276" width="9.3984375" style="290" customWidth="1"/>
-    <col min="1277" max="1277" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1278" max="1278" width="16.296875" style="290" customWidth="1"/>
-    <col min="1279" max="1280" width="8.59765625" style="290" customWidth="1"/>
-    <col min="1281" max="1281" width="12.296875" style="290" customWidth="1"/>
-    <col min="1282" max="1282" width="14.3984375" style="290" customWidth="1"/>
-    <col min="1283" max="1283" width="12.296875" style="290" customWidth="1"/>
-    <col min="1284" max="1284" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1285" max="1285" width="4" style="290" customWidth="1"/>
-    <col min="1286" max="1286" width="13.69921875" style="290" customWidth="1"/>
-    <col min="1287" max="1287" width="13.3984375" style="290" customWidth="1"/>
-    <col min="1288" max="1290" width="9.09765625" style="290"/>
-    <col min="1291" max="1291" width="14.8984375" style="290" customWidth="1"/>
-    <col min="1292" max="1530" width="9.09765625" style="290"/>
-    <col min="1531" max="1532" width="9.3984375" style="290" customWidth="1"/>
-    <col min="1533" max="1533" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1534" max="1534" width="16.296875" style="290" customWidth="1"/>
-    <col min="1535" max="1536" width="8.59765625" style="290" customWidth="1"/>
-    <col min="1537" max="1537" width="12.296875" style="290" customWidth="1"/>
-    <col min="1538" max="1538" width="14.3984375" style="290" customWidth="1"/>
-    <col min="1539" max="1539" width="12.296875" style="290" customWidth="1"/>
-    <col min="1540" max="1540" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1541" max="1541" width="4" style="290" customWidth="1"/>
-    <col min="1542" max="1542" width="13.69921875" style="290" customWidth="1"/>
-    <col min="1543" max="1543" width="13.3984375" style="290" customWidth="1"/>
-    <col min="1544" max="1546" width="9.09765625" style="290"/>
-    <col min="1547" max="1547" width="14.8984375" style="290" customWidth="1"/>
-    <col min="1548" max="1786" width="9.09765625" style="290"/>
-    <col min="1787" max="1788" width="9.3984375" style="290" customWidth="1"/>
-    <col min="1789" max="1789" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1790" max="1790" width="16.296875" style="290" customWidth="1"/>
-    <col min="1791" max="1792" width="8.59765625" style="290" customWidth="1"/>
-    <col min="1793" max="1793" width="12.296875" style="290" customWidth="1"/>
-    <col min="1794" max="1794" width="14.3984375" style="290" customWidth="1"/>
-    <col min="1795" max="1795" width="12.296875" style="290" customWidth="1"/>
-    <col min="1796" max="1796" width="15.59765625" style="290" customWidth="1"/>
-    <col min="1797" max="1797" width="4" style="290" customWidth="1"/>
-    <col min="1798" max="1798" width="13.69921875" style="290" customWidth="1"/>
-    <col min="1799" max="1799" width="13.3984375" style="290" customWidth="1"/>
-    <col min="1800" max="1802" width="9.09765625" style="290"/>
-    <col min="1803" max="1803" width="14.8984375" style="290" customWidth="1"/>
-    <col min="1804" max="2042" width="9.09765625" style="290"/>
-    <col min="2043" max="2044" width="9.3984375" style="290" customWidth="1"/>
-    <col min="2045" max="2045" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2046" max="2046" width="16.296875" style="290" customWidth="1"/>
-    <col min="2047" max="2048" width="8.59765625" style="290" customWidth="1"/>
-    <col min="2049" max="2049" width="12.296875" style="290" customWidth="1"/>
-    <col min="2050" max="2050" width="14.3984375" style="290" customWidth="1"/>
-    <col min="2051" max="2051" width="12.296875" style="290" customWidth="1"/>
-    <col min="2052" max="2052" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2053" max="2053" width="4" style="290" customWidth="1"/>
-    <col min="2054" max="2054" width="13.69921875" style="290" customWidth="1"/>
-    <col min="2055" max="2055" width="13.3984375" style="290" customWidth="1"/>
-    <col min="2056" max="2058" width="9.09765625" style="290"/>
-    <col min="2059" max="2059" width="14.8984375" style="290" customWidth="1"/>
-    <col min="2060" max="2298" width="9.09765625" style="290"/>
-    <col min="2299" max="2300" width="9.3984375" style="290" customWidth="1"/>
-    <col min="2301" max="2301" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2302" max="2302" width="16.296875" style="290" customWidth="1"/>
-    <col min="2303" max="2304" width="8.59765625" style="290" customWidth="1"/>
-    <col min="2305" max="2305" width="12.296875" style="290" customWidth="1"/>
-    <col min="2306" max="2306" width="14.3984375" style="290" customWidth="1"/>
-    <col min="2307" max="2307" width="12.296875" style="290" customWidth="1"/>
-    <col min="2308" max="2308" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2309" max="2309" width="4" style="290" customWidth="1"/>
-    <col min="2310" max="2310" width="13.69921875" style="290" customWidth="1"/>
-    <col min="2311" max="2311" width="13.3984375" style="290" customWidth="1"/>
-    <col min="2312" max="2314" width="9.09765625" style="290"/>
-    <col min="2315" max="2315" width="14.8984375" style="290" customWidth="1"/>
-    <col min="2316" max="2554" width="9.09765625" style="290"/>
-    <col min="2555" max="2556" width="9.3984375" style="290" customWidth="1"/>
-    <col min="2557" max="2557" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2558" max="2558" width="16.296875" style="290" customWidth="1"/>
-    <col min="2559" max="2560" width="8.59765625" style="290" customWidth="1"/>
-    <col min="2561" max="2561" width="12.296875" style="290" customWidth="1"/>
-    <col min="2562" max="2562" width="14.3984375" style="290" customWidth="1"/>
-    <col min="2563" max="2563" width="12.296875" style="290" customWidth="1"/>
-    <col min="2564" max="2564" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2565" max="2565" width="4" style="290" customWidth="1"/>
-    <col min="2566" max="2566" width="13.69921875" style="290" customWidth="1"/>
-    <col min="2567" max="2567" width="13.3984375" style="290" customWidth="1"/>
-    <col min="2568" max="2570" width="9.09765625" style="290"/>
-    <col min="2571" max="2571" width="14.8984375" style="290" customWidth="1"/>
-    <col min="2572" max="2810" width="9.09765625" style="290"/>
-    <col min="2811" max="2812" width="9.3984375" style="290" customWidth="1"/>
-    <col min="2813" max="2813" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2814" max="2814" width="16.296875" style="290" customWidth="1"/>
-    <col min="2815" max="2816" width="8.59765625" style="290" customWidth="1"/>
-    <col min="2817" max="2817" width="12.296875" style="290" customWidth="1"/>
-    <col min="2818" max="2818" width="14.3984375" style="290" customWidth="1"/>
-    <col min="2819" max="2819" width="12.296875" style="290" customWidth="1"/>
-    <col min="2820" max="2820" width="15.59765625" style="290" customWidth="1"/>
-    <col min="2821" max="2821" width="4" style="290" customWidth="1"/>
-    <col min="2822" max="2822" width="13.69921875" style="290" customWidth="1"/>
-    <col min="2823" max="2823" width="13.3984375" style="290" customWidth="1"/>
-    <col min="2824" max="2826" width="9.09765625" style="290"/>
-    <col min="2827" max="2827" width="14.8984375" style="290" customWidth="1"/>
-    <col min="2828" max="3066" width="9.09765625" style="290"/>
-    <col min="3067" max="3068" width="9.3984375" style="290" customWidth="1"/>
-    <col min="3069" max="3069" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3070" max="3070" width="16.296875" style="290" customWidth="1"/>
-    <col min="3071" max="3072" width="8.59765625" style="290" customWidth="1"/>
-    <col min="3073" max="3073" width="12.296875" style="290" customWidth="1"/>
-    <col min="3074" max="3074" width="14.3984375" style="290" customWidth="1"/>
-    <col min="3075" max="3075" width="12.296875" style="290" customWidth="1"/>
-    <col min="3076" max="3076" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3077" max="3077" width="4" style="290" customWidth="1"/>
-    <col min="3078" max="3078" width="13.69921875" style="290" customWidth="1"/>
-    <col min="3079" max="3079" width="13.3984375" style="290" customWidth="1"/>
-    <col min="3080" max="3082" width="9.09765625" style="290"/>
-    <col min="3083" max="3083" width="14.8984375" style="290" customWidth="1"/>
-    <col min="3084" max="3322" width="9.09765625" style="290"/>
-    <col min="3323" max="3324" width="9.3984375" style="290" customWidth="1"/>
-    <col min="3325" max="3325" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3326" max="3326" width="16.296875" style="290" customWidth="1"/>
-    <col min="3327" max="3328" width="8.59765625" style="290" customWidth="1"/>
-    <col min="3329" max="3329" width="12.296875" style="290" customWidth="1"/>
-    <col min="3330" max="3330" width="14.3984375" style="290" customWidth="1"/>
-    <col min="3331" max="3331" width="12.296875" style="290" customWidth="1"/>
-    <col min="3332" max="3332" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3333" max="3333" width="4" style="290" customWidth="1"/>
-    <col min="3334" max="3334" width="13.69921875" style="290" customWidth="1"/>
-    <col min="3335" max="3335" width="13.3984375" style="290" customWidth="1"/>
-    <col min="3336" max="3338" width="9.09765625" style="290"/>
-    <col min="3339" max="3339" width="14.8984375" style="290" customWidth="1"/>
-    <col min="3340" max="3578" width="9.09765625" style="290"/>
-    <col min="3579" max="3580" width="9.3984375" style="290" customWidth="1"/>
-    <col min="3581" max="3581" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3582" max="3582" width="16.296875" style="290" customWidth="1"/>
-    <col min="3583" max="3584" width="8.59765625" style="290" customWidth="1"/>
-    <col min="3585" max="3585" width="12.296875" style="290" customWidth="1"/>
-    <col min="3586" max="3586" width="14.3984375" style="290" customWidth="1"/>
-    <col min="3587" max="3587" width="12.296875" style="290" customWidth="1"/>
-    <col min="3588" max="3588" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3589" max="3589" width="4" style="290" customWidth="1"/>
-    <col min="3590" max="3590" width="13.69921875" style="290" customWidth="1"/>
-    <col min="3591" max="3591" width="13.3984375" style="290" customWidth="1"/>
-    <col min="3592" max="3594" width="9.09765625" style="290"/>
-    <col min="3595" max="3595" width="14.8984375" style="290" customWidth="1"/>
-    <col min="3596" max="3834" width="9.09765625" style="290"/>
-    <col min="3835" max="3836" width="9.3984375" style="290" customWidth="1"/>
-    <col min="3837" max="3837" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3838" max="3838" width="16.296875" style="290" customWidth="1"/>
-    <col min="3839" max="3840" width="8.59765625" style="290" customWidth="1"/>
-    <col min="3841" max="3841" width="12.296875" style="290" customWidth="1"/>
-    <col min="3842" max="3842" width="14.3984375" style="290" customWidth="1"/>
-    <col min="3843" max="3843" width="12.296875" style="290" customWidth="1"/>
-    <col min="3844" max="3844" width="15.59765625" style="290" customWidth="1"/>
-    <col min="3845" max="3845" width="4" style="290" customWidth="1"/>
-    <col min="3846" max="3846" width="13.69921875" style="290" customWidth="1"/>
-    <col min="3847" max="3847" width="13.3984375" style="290" customWidth="1"/>
-    <col min="3848" max="3850" width="9.09765625" style="290"/>
-    <col min="3851" max="3851" width="14.8984375" style="290" customWidth="1"/>
-    <col min="3852" max="4090" width="9.09765625" style="290"/>
-    <col min="4091" max="4092" width="9.3984375" style="290" customWidth="1"/>
-    <col min="4093" max="4093" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4094" max="4094" width="16.296875" style="290" customWidth="1"/>
-    <col min="4095" max="4096" width="8.59765625" style="290" customWidth="1"/>
-    <col min="4097" max="4097" width="12.296875" style="290" customWidth="1"/>
-    <col min="4098" max="4098" width="14.3984375" style="290" customWidth="1"/>
-    <col min="4099" max="4099" width="12.296875" style="290" customWidth="1"/>
-    <col min="4100" max="4100" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4101" max="4101" width="4" style="290" customWidth="1"/>
-    <col min="4102" max="4102" width="13.69921875" style="290" customWidth="1"/>
-    <col min="4103" max="4103" width="13.3984375" style="290" customWidth="1"/>
-    <col min="4104" max="4106" width="9.09765625" style="290"/>
-    <col min="4107" max="4107" width="14.8984375" style="290" customWidth="1"/>
-    <col min="4108" max="4346" width="9.09765625" style="290"/>
-    <col min="4347" max="4348" width="9.3984375" style="290" customWidth="1"/>
-    <col min="4349" max="4349" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4350" max="4350" width="16.296875" style="290" customWidth="1"/>
-    <col min="4351" max="4352" width="8.59765625" style="290" customWidth="1"/>
-    <col min="4353" max="4353" width="12.296875" style="290" customWidth="1"/>
-    <col min="4354" max="4354" width="14.3984375" style="290" customWidth="1"/>
-    <col min="4355" max="4355" width="12.296875" style="290" customWidth="1"/>
-    <col min="4356" max="4356" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4357" max="4357" width="4" style="290" customWidth="1"/>
-    <col min="4358" max="4358" width="13.69921875" style="290" customWidth="1"/>
-    <col min="4359" max="4359" width="13.3984375" style="290" customWidth="1"/>
-    <col min="4360" max="4362" width="9.09765625" style="290"/>
-    <col min="4363" max="4363" width="14.8984375" style="290" customWidth="1"/>
-    <col min="4364" max="4602" width="9.09765625" style="290"/>
-    <col min="4603" max="4604" width="9.3984375" style="290" customWidth="1"/>
-    <col min="4605" max="4605" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4606" max="4606" width="16.296875" style="290" customWidth="1"/>
-    <col min="4607" max="4608" width="8.59765625" style="290" customWidth="1"/>
-    <col min="4609" max="4609" width="12.296875" style="290" customWidth="1"/>
-    <col min="4610" max="4610" width="14.3984375" style="290" customWidth="1"/>
-    <col min="4611" max="4611" width="12.296875" style="290" customWidth="1"/>
-    <col min="4612" max="4612" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4613" max="4613" width="4" style="290" customWidth="1"/>
-    <col min="4614" max="4614" width="13.69921875" style="290" customWidth="1"/>
-    <col min="4615" max="4615" width="13.3984375" style="290" customWidth="1"/>
-    <col min="4616" max="4618" width="9.09765625" style="290"/>
-    <col min="4619" max="4619" width="14.8984375" style="290" customWidth="1"/>
-    <col min="4620" max="4858" width="9.09765625" style="290"/>
-    <col min="4859" max="4860" width="9.3984375" style="290" customWidth="1"/>
-    <col min="4861" max="4861" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4862" max="4862" width="16.296875" style="290" customWidth="1"/>
-    <col min="4863" max="4864" width="8.59765625" style="290" customWidth="1"/>
-    <col min="4865" max="4865" width="12.296875" style="290" customWidth="1"/>
-    <col min="4866" max="4866" width="14.3984375" style="290" customWidth="1"/>
-    <col min="4867" max="4867" width="12.296875" style="290" customWidth="1"/>
-    <col min="4868" max="4868" width="15.59765625" style="290" customWidth="1"/>
-    <col min="4869" max="4869" width="4" style="290" customWidth="1"/>
-    <col min="4870" max="4870" width="13.69921875" style="290" customWidth="1"/>
-    <col min="4871" max="4871" width="13.3984375" style="290" customWidth="1"/>
-    <col min="4872" max="4874" width="9.09765625" style="290"/>
-    <col min="4875" max="4875" width="14.8984375" style="290" customWidth="1"/>
-    <col min="4876" max="5114" width="9.09765625" style="290"/>
-    <col min="5115" max="5116" width="9.3984375" style="290" customWidth="1"/>
-    <col min="5117" max="5117" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5118" max="5118" width="16.296875" style="290" customWidth="1"/>
-    <col min="5119" max="5120" width="8.59765625" style="290" customWidth="1"/>
-    <col min="5121" max="5121" width="12.296875" style="290" customWidth="1"/>
-    <col min="5122" max="5122" width="14.3984375" style="290" customWidth="1"/>
-    <col min="5123" max="5123" width="12.296875" style="290" customWidth="1"/>
-    <col min="5124" max="5124" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5125" max="5125" width="4" style="290" customWidth="1"/>
-    <col min="5126" max="5126" width="13.69921875" style="290" customWidth="1"/>
-    <col min="5127" max="5127" width="13.3984375" style="290" customWidth="1"/>
-    <col min="5128" max="5130" width="9.09765625" style="290"/>
-    <col min="5131" max="5131" width="14.8984375" style="290" customWidth="1"/>
-    <col min="5132" max="5370" width="9.09765625" style="290"/>
-    <col min="5371" max="5372" width="9.3984375" style="290" customWidth="1"/>
-    <col min="5373" max="5373" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5374" max="5374" width="16.296875" style="290" customWidth="1"/>
-    <col min="5375" max="5376" width="8.59765625" style="290" customWidth="1"/>
-    <col min="5377" max="5377" width="12.296875" style="290" customWidth="1"/>
-    <col min="5378" max="5378" width="14.3984375" style="290" customWidth="1"/>
-    <col min="5379" max="5379" width="12.296875" style="290" customWidth="1"/>
-    <col min="5380" max="5380" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5381" max="5381" width="4" style="290" customWidth="1"/>
-    <col min="5382" max="5382" width="13.69921875" style="290" customWidth="1"/>
-    <col min="5383" max="5383" width="13.3984375" style="290" customWidth="1"/>
-    <col min="5384" max="5386" width="9.09765625" style="290"/>
-    <col min="5387" max="5387" width="14.8984375" style="290" customWidth="1"/>
-    <col min="5388" max="5626" width="9.09765625" style="290"/>
-    <col min="5627" max="5628" width="9.3984375" style="290" customWidth="1"/>
-    <col min="5629" max="5629" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5630" max="5630" width="16.296875" style="290" customWidth="1"/>
-    <col min="5631" max="5632" width="8.59765625" style="290" customWidth="1"/>
-    <col min="5633" max="5633" width="12.296875" style="290" customWidth="1"/>
-    <col min="5634" max="5634" width="14.3984375" style="290" customWidth="1"/>
-    <col min="5635" max="5635" width="12.296875" style="290" customWidth="1"/>
-    <col min="5636" max="5636" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5637" max="5637" width="4" style="290" customWidth="1"/>
-    <col min="5638" max="5638" width="13.69921875" style="290" customWidth="1"/>
-    <col min="5639" max="5639" width="13.3984375" style="290" customWidth="1"/>
-    <col min="5640" max="5642" width="9.09765625" style="290"/>
-    <col min="5643" max="5643" width="14.8984375" style="290" customWidth="1"/>
-    <col min="5644" max="5882" width="9.09765625" style="290"/>
-    <col min="5883" max="5884" width="9.3984375" style="290" customWidth="1"/>
-    <col min="5885" max="5885" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5886" max="5886" width="16.296875" style="290" customWidth="1"/>
-    <col min="5887" max="5888" width="8.59765625" style="290" customWidth="1"/>
-    <col min="5889" max="5889" width="12.296875" style="290" customWidth="1"/>
-    <col min="5890" max="5890" width="14.3984375" style="290" customWidth="1"/>
-    <col min="5891" max="5891" width="12.296875" style="290" customWidth="1"/>
-    <col min="5892" max="5892" width="15.59765625" style="290" customWidth="1"/>
-    <col min="5893" max="5893" width="4" style="290" customWidth="1"/>
-    <col min="5894" max="5894" width="13.69921875" style="290" customWidth="1"/>
-    <col min="5895" max="5895" width="13.3984375" style="290" customWidth="1"/>
-    <col min="5896" max="5898" width="9.09765625" style="290"/>
-    <col min="5899" max="5899" width="14.8984375" style="290" customWidth="1"/>
-    <col min="5900" max="6138" width="9.09765625" style="290"/>
-    <col min="6139" max="6140" width="9.3984375" style="290" customWidth="1"/>
-    <col min="6141" max="6141" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6142" max="6142" width="16.296875" style="290" customWidth="1"/>
-    <col min="6143" max="6144" width="8.59765625" style="290" customWidth="1"/>
-    <col min="6145" max="6145" width="12.296875" style="290" customWidth="1"/>
-    <col min="6146" max="6146" width="14.3984375" style="290" customWidth="1"/>
-    <col min="6147" max="6147" width="12.296875" style="290" customWidth="1"/>
-    <col min="6148" max="6148" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6149" max="6149" width="4" style="290" customWidth="1"/>
-    <col min="6150" max="6150" width="13.69921875" style="290" customWidth="1"/>
-    <col min="6151" max="6151" width="13.3984375" style="290" customWidth="1"/>
-    <col min="6152" max="6154" width="9.09765625" style="290"/>
-    <col min="6155" max="6155" width="14.8984375" style="290" customWidth="1"/>
-    <col min="6156" max="6394" width="9.09765625" style="290"/>
-    <col min="6395" max="6396" width="9.3984375" style="290" customWidth="1"/>
-    <col min="6397" max="6397" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6398" max="6398" width="16.296875" style="290" customWidth="1"/>
-    <col min="6399" max="6400" width="8.59765625" style="290" customWidth="1"/>
-    <col min="6401" max="6401" width="12.296875" style="290" customWidth="1"/>
-    <col min="6402" max="6402" width="14.3984375" style="290" customWidth="1"/>
-    <col min="6403" max="6403" width="12.296875" style="290" customWidth="1"/>
-    <col min="6404" max="6404" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6405" max="6405" width="4" style="290" customWidth="1"/>
-    <col min="6406" max="6406" width="13.69921875" style="290" customWidth="1"/>
-    <col min="6407" max="6407" width="13.3984375" style="290" customWidth="1"/>
-    <col min="6408" max="6410" width="9.09765625" style="290"/>
-    <col min="6411" max="6411" width="14.8984375" style="290" customWidth="1"/>
-    <col min="6412" max="6650" width="9.09765625" style="290"/>
-    <col min="6651" max="6652" width="9.3984375" style="290" customWidth="1"/>
-    <col min="6653" max="6653" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6654" max="6654" width="16.296875" style="290" customWidth="1"/>
-    <col min="6655" max="6656" width="8.59765625" style="290" customWidth="1"/>
-    <col min="6657" max="6657" width="12.296875" style="290" customWidth="1"/>
-    <col min="6658" max="6658" width="14.3984375" style="290" customWidth="1"/>
-    <col min="6659" max="6659" width="12.296875" style="290" customWidth="1"/>
-    <col min="6660" max="6660" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6661" max="6661" width="4" style="290" customWidth="1"/>
-    <col min="6662" max="6662" width="13.69921875" style="290" customWidth="1"/>
-    <col min="6663" max="6663" width="13.3984375" style="290" customWidth="1"/>
-    <col min="6664" max="6666" width="9.09765625" style="290"/>
-    <col min="6667" max="6667" width="14.8984375" style="290" customWidth="1"/>
-    <col min="6668" max="6906" width="9.09765625" style="290"/>
-    <col min="6907" max="6908" width="9.3984375" style="290" customWidth="1"/>
-    <col min="6909" max="6909" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6910" max="6910" width="16.296875" style="290" customWidth="1"/>
-    <col min="6911" max="6912" width="8.59765625" style="290" customWidth="1"/>
-    <col min="6913" max="6913" width="12.296875" style="290" customWidth="1"/>
-    <col min="6914" max="6914" width="14.3984375" style="290" customWidth="1"/>
-    <col min="6915" max="6915" width="12.296875" style="290" customWidth="1"/>
-    <col min="6916" max="6916" width="15.59765625" style="290" customWidth="1"/>
-    <col min="6917" max="6917" width="4" style="290" customWidth="1"/>
-    <col min="6918" max="6918" width="13.69921875" style="290" customWidth="1"/>
-    <col min="6919" max="6919" width="13.3984375" style="290" customWidth="1"/>
-    <col min="6920" max="6922" width="9.09765625" style="290"/>
-    <col min="6923" max="6923" width="14.8984375" style="290" customWidth="1"/>
-    <col min="6924" max="7162" width="9.09765625" style="290"/>
-    <col min="7163" max="7164" width="9.3984375" style="290" customWidth="1"/>
-    <col min="7165" max="7165" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7166" max="7166" width="16.296875" style="290" customWidth="1"/>
-    <col min="7167" max="7168" width="8.59765625" style="290" customWidth="1"/>
-    <col min="7169" max="7169" width="12.296875" style="290" customWidth="1"/>
-    <col min="7170" max="7170" width="14.3984375" style="290" customWidth="1"/>
-    <col min="7171" max="7171" width="12.296875" style="290" customWidth="1"/>
-    <col min="7172" max="7172" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7173" max="7173" width="4" style="290" customWidth="1"/>
-    <col min="7174" max="7174" width="13.69921875" style="290" customWidth="1"/>
-    <col min="7175" max="7175" width="13.3984375" style="290" customWidth="1"/>
-    <col min="7176" max="7178" width="9.09765625" style="290"/>
-    <col min="7179" max="7179" width="14.8984375" style="290" customWidth="1"/>
-    <col min="7180" max="7418" width="9.09765625" style="290"/>
-    <col min="7419" max="7420" width="9.3984375" style="290" customWidth="1"/>
-    <col min="7421" max="7421" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7422" max="7422" width="16.296875" style="290" customWidth="1"/>
-    <col min="7423" max="7424" width="8.59765625" style="290" customWidth="1"/>
-    <col min="7425" max="7425" width="12.296875" style="290" customWidth="1"/>
-    <col min="7426" max="7426" width="14.3984375" style="290" customWidth="1"/>
-    <col min="7427" max="7427" width="12.296875" style="290" customWidth="1"/>
-    <col min="7428" max="7428" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7429" max="7429" width="4" style="290" customWidth="1"/>
-    <col min="7430" max="7430" width="13.69921875" style="290" customWidth="1"/>
-    <col min="7431" max="7431" width="13.3984375" style="290" customWidth="1"/>
-    <col min="7432" max="7434" width="9.09765625" style="290"/>
-    <col min="7435" max="7435" width="14.8984375" style="290" customWidth="1"/>
-    <col min="7436" max="7674" width="9.09765625" style="290"/>
-    <col min="7675" max="7676" width="9.3984375" style="290" customWidth="1"/>
-    <col min="7677" max="7677" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7678" max="7678" width="16.296875" style="290" customWidth="1"/>
-    <col min="7679" max="7680" width="8.59765625" style="290" customWidth="1"/>
-    <col min="7681" max="7681" width="12.296875" style="290" customWidth="1"/>
-    <col min="7682" max="7682" width="14.3984375" style="290" customWidth="1"/>
-    <col min="7683" max="7683" width="12.296875" style="290" customWidth="1"/>
-    <col min="7684" max="7684" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7685" max="7685" width="4" style="290" customWidth="1"/>
-    <col min="7686" max="7686" width="13.69921875" style="290" customWidth="1"/>
-    <col min="7687" max="7687" width="13.3984375" style="290" customWidth="1"/>
-    <col min="7688" max="7690" width="9.09765625" style="290"/>
-    <col min="7691" max="7691" width="14.8984375" style="290" customWidth="1"/>
-    <col min="7692" max="7930" width="9.09765625" style="290"/>
-    <col min="7931" max="7932" width="9.3984375" style="290" customWidth="1"/>
-    <col min="7933" max="7933" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7934" max="7934" width="16.296875" style="290" customWidth="1"/>
-    <col min="7935" max="7936" width="8.59765625" style="290" customWidth="1"/>
-    <col min="7937" max="7937" width="12.296875" style="290" customWidth="1"/>
-    <col min="7938" max="7938" width="14.3984375" style="290" customWidth="1"/>
-    <col min="7939" max="7939" width="12.296875" style="290" customWidth="1"/>
-    <col min="7940" max="7940" width="15.59765625" style="290" customWidth="1"/>
-    <col min="7941" max="7941" width="4" style="290" customWidth="1"/>
-    <col min="7942" max="7942" width="13.69921875" style="290" customWidth="1"/>
-    <col min="7943" max="7943" width="13.3984375" style="290" customWidth="1"/>
-    <col min="7944" max="7946" width="9.09765625" style="290"/>
-    <col min="7947" max="7947" width="14.8984375" style="290" customWidth="1"/>
-    <col min="7948" max="8186" width="9.09765625" style="290"/>
-    <col min="8187" max="8188" width="9.3984375" style="290" customWidth="1"/>
-    <col min="8189" max="8189" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8190" max="8190" width="16.296875" style="290" customWidth="1"/>
-    <col min="8191" max="8192" width="8.59765625" style="290" customWidth="1"/>
-    <col min="8193" max="8193" width="12.296875" style="290" customWidth="1"/>
-    <col min="8194" max="8194" width="14.3984375" style="290" customWidth="1"/>
-    <col min="8195" max="8195" width="12.296875" style="290" customWidth="1"/>
-    <col min="8196" max="8196" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8197" max="8197" width="4" style="290" customWidth="1"/>
-    <col min="8198" max="8198" width="13.69921875" style="290" customWidth="1"/>
-    <col min="8199" max="8199" width="13.3984375" style="290" customWidth="1"/>
-    <col min="8200" max="8202" width="9.09765625" style="290"/>
-    <col min="8203" max="8203" width="14.8984375" style="290" customWidth="1"/>
-    <col min="8204" max="8442" width="9.09765625" style="290"/>
-    <col min="8443" max="8444" width="9.3984375" style="290" customWidth="1"/>
-    <col min="8445" max="8445" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8446" max="8446" width="16.296875" style="290" customWidth="1"/>
-    <col min="8447" max="8448" width="8.59765625" style="290" customWidth="1"/>
-    <col min="8449" max="8449" width="12.296875" style="290" customWidth="1"/>
-    <col min="8450" max="8450" width="14.3984375" style="290" customWidth="1"/>
-    <col min="8451" max="8451" width="12.296875" style="290" customWidth="1"/>
-    <col min="8452" max="8452" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8453" max="8453" width="4" style="290" customWidth="1"/>
-    <col min="8454" max="8454" width="13.69921875" style="290" customWidth="1"/>
-    <col min="8455" max="8455" width="13.3984375" style="290" customWidth="1"/>
-    <col min="8456" max="8458" width="9.09765625" style="290"/>
-    <col min="8459" max="8459" width="14.8984375" style="290" customWidth="1"/>
-    <col min="8460" max="8698" width="9.09765625" style="290"/>
-    <col min="8699" max="8700" width="9.3984375" style="290" customWidth="1"/>
-    <col min="8701" max="8701" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8702" max="8702" width="16.296875" style="290" customWidth="1"/>
-    <col min="8703" max="8704" width="8.59765625" style="290" customWidth="1"/>
-    <col min="8705" max="8705" width="12.296875" style="290" customWidth="1"/>
-    <col min="8706" max="8706" width="14.3984375" style="290" customWidth="1"/>
-    <col min="8707" max="8707" width="12.296875" style="290" customWidth="1"/>
-    <col min="8708" max="8708" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8709" max="8709" width="4" style="290" customWidth="1"/>
-    <col min="8710" max="8710" width="13.69921875" style="290" customWidth="1"/>
-    <col min="8711" max="8711" width="13.3984375" style="290" customWidth="1"/>
-    <col min="8712" max="8714" width="9.09765625" style="290"/>
-    <col min="8715" max="8715" width="14.8984375" style="290" customWidth="1"/>
-    <col min="8716" max="8954" width="9.09765625" style="290"/>
-    <col min="8955" max="8956" width="9.3984375" style="290" customWidth="1"/>
-    <col min="8957" max="8957" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8958" max="8958" width="16.296875" style="290" customWidth="1"/>
-    <col min="8959" max="8960" width="8.59765625" style="290" customWidth="1"/>
-    <col min="8961" max="8961" width="12.296875" style="290" customWidth="1"/>
-    <col min="8962" max="8962" width="14.3984375" style="290" customWidth="1"/>
-    <col min="8963" max="8963" width="12.296875" style="290" customWidth="1"/>
-    <col min="8964" max="8964" width="15.59765625" style="290" customWidth="1"/>
-    <col min="8965" max="8965" width="4" style="290" customWidth="1"/>
-    <col min="8966" max="8966" width="13.69921875" style="290" customWidth="1"/>
-    <col min="8967" max="8967" width="13.3984375" style="290" customWidth="1"/>
-    <col min="8968" max="8970" width="9.09765625" style="290"/>
-    <col min="8971" max="8971" width="14.8984375" style="290" customWidth="1"/>
-    <col min="8972" max="9210" width="9.09765625" style="290"/>
-    <col min="9211" max="9212" width="9.3984375" style="290" customWidth="1"/>
-    <col min="9213" max="9213" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9214" max="9214" width="16.296875" style="290" customWidth="1"/>
-    <col min="9215" max="9216" width="8.59765625" style="290" customWidth="1"/>
-    <col min="9217" max="9217" width="12.296875" style="290" customWidth="1"/>
-    <col min="9218" max="9218" width="14.3984375" style="290" customWidth="1"/>
-    <col min="9219" max="9219" width="12.296875" style="290" customWidth="1"/>
-    <col min="9220" max="9220" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9221" max="9221" width="4" style="290" customWidth="1"/>
-    <col min="9222" max="9222" width="13.69921875" style="290" customWidth="1"/>
-    <col min="9223" max="9223" width="13.3984375" style="290" customWidth="1"/>
-    <col min="9224" max="9226" width="9.09765625" style="290"/>
-    <col min="9227" max="9227" width="14.8984375" style="290" customWidth="1"/>
-    <col min="9228" max="9466" width="9.09765625" style="290"/>
-    <col min="9467" max="9468" width="9.3984375" style="290" customWidth="1"/>
-    <col min="9469" max="9469" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9470" max="9470" width="16.296875" style="290" customWidth="1"/>
-    <col min="9471" max="9472" width="8.59765625" style="290" customWidth="1"/>
-    <col min="9473" max="9473" width="12.296875" style="290" customWidth="1"/>
-    <col min="9474" max="9474" width="14.3984375" style="290" customWidth="1"/>
-    <col min="9475" max="9475" width="12.296875" style="290" customWidth="1"/>
-    <col min="9476" max="9476" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9477" max="9477" width="4" style="290" customWidth="1"/>
-    <col min="9478" max="9478" width="13.69921875" style="290" customWidth="1"/>
-    <col min="9479" max="9479" width="13.3984375" style="290" customWidth="1"/>
-    <col min="9480" max="9482" width="9.09765625" style="290"/>
-    <col min="9483" max="9483" width="14.8984375" style="290" customWidth="1"/>
-    <col min="9484" max="9722" width="9.09765625" style="290"/>
-    <col min="9723" max="9724" width="9.3984375" style="290" customWidth="1"/>
-    <col min="9725" max="9725" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9726" max="9726" width="16.296875" style="290" customWidth="1"/>
-    <col min="9727" max="9728" width="8.59765625" style="290" customWidth="1"/>
-    <col min="9729" max="9729" width="12.296875" style="290" customWidth="1"/>
-    <col min="9730" max="9730" width="14.3984375" style="290" customWidth="1"/>
-    <col min="9731" max="9731" width="12.296875" style="290" customWidth="1"/>
-    <col min="9732" max="9732" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9733" max="9733" width="4" style="290" customWidth="1"/>
-    <col min="9734" max="9734" width="13.69921875" style="290" customWidth="1"/>
-    <col min="9735" max="9735" width="13.3984375" style="290" customWidth="1"/>
-    <col min="9736" max="9738" width="9.09765625" style="290"/>
-    <col min="9739" max="9739" width="14.8984375" style="290" customWidth="1"/>
-    <col min="9740" max="9978" width="9.09765625" style="290"/>
-    <col min="9979" max="9980" width="9.3984375" style="290" customWidth="1"/>
-    <col min="9981" max="9981" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9982" max="9982" width="16.296875" style="290" customWidth="1"/>
-    <col min="9983" max="9984" width="8.59765625" style="290" customWidth="1"/>
-    <col min="9985" max="9985" width="12.296875" style="290" customWidth="1"/>
-    <col min="9986" max="9986" width="14.3984375" style="290" customWidth="1"/>
-    <col min="9987" max="9987" width="12.296875" style="290" customWidth="1"/>
-    <col min="9988" max="9988" width="15.59765625" style="290" customWidth="1"/>
-    <col min="9989" max="9989" width="4" style="290" customWidth="1"/>
-    <col min="9990" max="9990" width="13.69921875" style="290" customWidth="1"/>
-    <col min="9991" max="9991" width="13.3984375" style="290" customWidth="1"/>
-    <col min="9992" max="9994" width="9.09765625" style="290"/>
-    <col min="9995" max="9995" width="14.8984375" style="290" customWidth="1"/>
-    <col min="9996" max="10234" width="9.09765625" style="290"/>
-    <col min="10235" max="10236" width="9.3984375" style="290" customWidth="1"/>
-    <col min="10237" max="10237" width="15.59765625" style="290" customWidth="1"/>
-    <col min="10238" max="10238" width="16.296875" style="290" customWidth="1"/>
-    <col min="10239" max="10240" width="8.59765625" style="290" customWidth="1"/>
-    <col min="10241" max="10241" width="12.296875" style="290" customWidth="1"/>
-    <col min="10242" max="10242" width="14.3984375" style="290" customWidth="1"/>
-    <col min="10243" max="10243" width="12.296875" style="290" customWidth="1"/>
-    <col min="10244" max="10244" width="15.59765625" style="290" customWidth="1"/>
-    <col min="10245" max="10245" width="4" style="290" customWidth="1"/>
-    <col min="10246" max="10246" width="13.69921875" style="290" customWidth="1"/>
-    <col min="10247" max="10247" width="13.3984375" style="290" customWidth="1"/>
-    <col min="10248" max="10250" width="9.09765625" style="290"/>
-    <col min="10251" max="10251" width="14.8984375" style="290" customWidth="1"/>
-    <col min="10252" max="10490" width="9.09765625" style="290"/>
-    <col min="10491" max="10492" width="9.3984375" style="290" customWidth="1"/>
-    <col min="10493" max="10493" width="15.59765625" style="290" customWidth="1"/>
-    <col min="10494" max="10494" width="16.296875" style="290" customWidth="1"/>
-    <col min="10495" max="10496" width="8.59765625" style="290" customWidth="1"/>
-    <col min="10497" max="10497" width="12.296875" style="290" customWidth="1"/>
-    <col min="10498" max="10498" width="14.3984375" style="290" customWidth="1"/>
-    <col min="10499" max="10499" width="12.296875" style="290" customWidth="1"/>
-    <col min="10500" max="10500" width="15.59765625" style="290" customWidth="1"/>
-    <col min="10501" max="10501" width="4" style="290" customWidth="1"/>
-    <col min="10502" max="10502" width="13.69921875" style="290" customWidth="1"/>
-    <col min="10503" max="10503" width="13.3984375" style="290" customWidth="1"/>
-    <col min="10504" max="10506" width="9.09765625" style="290"/>
-    <col min="10507" max="10507" width="14.8984375" style="290" customWidth="1"/>
-    <col min="10508" max="10746" width="9.09765625" style="290"/>
-    <col min="10747" max="10748" width="9.3984375" style="290" customWidth="1"/>
-    <col min="10749" max="10749" width="15.59765625" style="290" customWidth="1"/>
-    <col min="10750" max="10750" width="16.296875" style="290" customWidth="1"/>
-    <col min="10751" max="10752" width="8.59765625" style="290" customWidth="1"/>
-    <col min="10753" max="10753" width="12.296875" style="290" customWidth="1"/>
-    <col min="10754" max="10754" width="14.3984375" style="290" customWidth="1"/>
-    <col min="10755" max="10755" width="12.296875" style="290" customWidth="1"/>
-    <col min="10756" max="10756" width="15.59765625" style="290" customWidth="1"/>
-    <col min="10757" max="10757" width="4" style="290" customWidth="1"/>
-    <col min="10758" max="10758" width="13.69921875" style="290" customWidth="1"/>
-    <col min="10759" max="10759" width="13.3984375" style="290" customWidth="1"/>
-    <col min="10760" max="10762" width="9.09765625" style="290"/>
-    <col min="10763" max="10763" width="14.8984375" style="290" customWidth="1"/>
-    <col min="10764" max="11002" width="9.09765625" style="290"/>
-    <col min="11003" max="11004" width="9.3984375" style="290" customWidth="1"/>
-    <col min="11005" max="11005" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11006" max="11006" width="16.296875" style="290" customWidth="1"/>
-    <col min="11007" max="11008" width="8.59765625" style="290" customWidth="1"/>
-    <col min="11009" max="11009" width="12.296875" style="290" customWidth="1"/>
-    <col min="11010" max="11010" width="14.3984375" style="290" customWidth="1"/>
-    <col min="11011" max="11011" width="12.296875" style="290" customWidth="1"/>
-    <col min="11012" max="11012" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11013" max="11013" width="4" style="290" customWidth="1"/>
-    <col min="11014" max="11014" width="13.69921875" style="290" customWidth="1"/>
-    <col min="11015" max="11015" width="13.3984375" style="290" customWidth="1"/>
-    <col min="11016" max="11018" width="9.09765625" style="290"/>
-    <col min="11019" max="11019" width="14.8984375" style="290" customWidth="1"/>
-    <col min="11020" max="11258" width="9.09765625" style="290"/>
-    <col min="11259" max="11260" width="9.3984375" style="290" customWidth="1"/>
-    <col min="11261" max="11261" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11262" max="11262" width="16.296875" style="290" customWidth="1"/>
-    <col min="11263" max="11264" width="8.59765625" style="290" customWidth="1"/>
-    <col min="11265" max="11265" width="12.296875" style="290" customWidth="1"/>
-    <col min="11266" max="11266" width="14.3984375" style="290" customWidth="1"/>
-    <col min="11267" max="11267" width="12.296875" style="290" customWidth="1"/>
-    <col min="11268" max="11268" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11269" max="11269" width="4" style="290" customWidth="1"/>
-    <col min="11270" max="11270" width="13.69921875" style="290" customWidth="1"/>
-    <col min="11271" max="11271" width="13.3984375" style="290" customWidth="1"/>
-    <col min="11272" max="11274" width="9.09765625" style="290"/>
-    <col min="11275" max="11275" width="14.8984375" style="290" customWidth="1"/>
-    <col min="11276" max="11514" width="9.09765625" style="290"/>
-    <col min="11515" max="11516" width="9.3984375" style="290" customWidth="1"/>
-    <col min="11517" max="11517" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11518" max="11518" width="16.296875" style="290" customWidth="1"/>
-    <col min="11519" max="11520" width="8.59765625" style="290" customWidth="1"/>
-    <col min="11521" max="11521" width="12.296875" style="290" customWidth="1"/>
-    <col min="11522" max="11522" width="14.3984375" style="290" customWidth="1"/>
-    <col min="11523" max="11523" width="12.296875" style="290" customWidth="1"/>
-    <col min="11524" max="11524" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11525" max="11525" width="4" style="290" customWidth="1"/>
-    <col min="11526" max="11526" width="13.69921875" style="290" customWidth="1"/>
-    <col min="11527" max="11527" width="13.3984375" style="290" customWidth="1"/>
-    <col min="11528" max="11530" width="9.09765625" style="290"/>
-    <col min="11531" max="11531" width="14.8984375" style="290" customWidth="1"/>
-    <col min="11532" max="11770" width="9.09765625" style="290"/>
-    <col min="11771" max="11772" width="9.3984375" style="290" customWidth="1"/>
-    <col min="11773" max="11773" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11774" max="11774" width="16.296875" style="290" customWidth="1"/>
-    <col min="11775" max="11776" width="8.59765625" style="290" customWidth="1"/>
-    <col min="11777" max="11777" width="12.296875" style="290" customWidth="1"/>
-    <col min="11778" max="11778" width="14.3984375" style="290" customWidth="1"/>
-    <col min="11779" max="11779" width="12.296875" style="290" customWidth="1"/>
-    <col min="11780" max="11780" width="15.59765625" style="290" customWidth="1"/>
-    <col min="11781" max="11781" width="4" style="290" customWidth="1"/>
-    <col min="11782" max="11782" width="13.69921875" style="290" customWidth="1"/>
-    <col min="11783" max="11783" width="13.3984375" style="290" customWidth="1"/>
-    <col min="11784" max="11786" width="9.09765625" style="290"/>
-    <col min="11787" max="11787" width="14.8984375" style="290" customWidth="1"/>
-    <col min="11788" max="12026" width="9.09765625" style="290"/>
-    <col min="12027" max="12028" width="9.3984375" style="290" customWidth="1"/>
-    <col min="12029" max="12029" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12030" max="12030" width="16.296875" style="290" customWidth="1"/>
-    <col min="12031" max="12032" width="8.59765625" style="290" customWidth="1"/>
-    <col min="12033" max="12033" width="12.296875" style="290" customWidth="1"/>
-    <col min="12034" max="12034" width="14.3984375" style="290" customWidth="1"/>
-    <col min="12035" max="12035" width="12.296875" style="290" customWidth="1"/>
-    <col min="12036" max="12036" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12037" max="12037" width="4" style="290" customWidth="1"/>
-    <col min="12038" max="12038" width="13.69921875" style="290" customWidth="1"/>
-    <col min="12039" max="12039" width="13.3984375" style="290" customWidth="1"/>
-    <col min="12040" max="12042" width="9.09765625" style="290"/>
-    <col min="12043" max="12043" width="14.8984375" style="290" customWidth="1"/>
-    <col min="12044" max="12282" width="9.09765625" style="290"/>
-    <col min="12283" max="12284" width="9.3984375" style="290" customWidth="1"/>
-    <col min="12285" max="12285" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12286" max="12286" width="16.296875" style="290" customWidth="1"/>
-    <col min="12287" max="12288" width="8.59765625" style="290" customWidth="1"/>
-    <col min="12289" max="12289" width="12.296875" style="290" customWidth="1"/>
-    <col min="12290" max="12290" width="14.3984375" style="290" customWidth="1"/>
-    <col min="12291" max="12291" width="12.296875" style="290" customWidth="1"/>
-    <col min="12292" max="12292" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12293" max="12293" width="4" style="290" customWidth="1"/>
-    <col min="12294" max="12294" width="13.69921875" style="290" customWidth="1"/>
-    <col min="12295" max="12295" width="13.3984375" style="290" customWidth="1"/>
-    <col min="12296" max="12298" width="9.09765625" style="290"/>
-    <col min="12299" max="12299" width="14.8984375" style="290" customWidth="1"/>
-    <col min="12300" max="12538" width="9.09765625" style="290"/>
-    <col min="12539" max="12540" width="9.3984375" style="290" customWidth="1"/>
-    <col min="12541" max="12541" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12542" max="12542" width="16.296875" style="290" customWidth="1"/>
-    <col min="12543" max="12544" width="8.59765625" style="290" customWidth="1"/>
-    <col min="12545" max="12545" width="12.296875" style="290" customWidth="1"/>
-    <col min="12546" max="12546" width="14.3984375" style="290" customWidth="1"/>
-    <col min="12547" max="12547" width="12.296875" style="290" customWidth="1"/>
-    <col min="12548" max="12548" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12549" max="12549" width="4" style="290" customWidth="1"/>
-    <col min="12550" max="12550" width="13.69921875" style="290" customWidth="1"/>
-    <col min="12551" max="12551" width="13.3984375" style="290" customWidth="1"/>
-    <col min="12552" max="12554" width="9.09765625" style="290"/>
-    <col min="12555" max="12555" width="14.8984375" style="290" customWidth="1"/>
-    <col min="12556" max="12794" width="9.09765625" style="290"/>
-    <col min="12795" max="12796" width="9.3984375" style="290" customWidth="1"/>
-    <col min="12797" max="12797" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12798" max="12798" width="16.296875" style="290" customWidth="1"/>
-    <col min="12799" max="12800" width="8.59765625" style="290" customWidth="1"/>
-    <col min="12801" max="12801" width="12.296875" style="290" customWidth="1"/>
-    <col min="12802" max="12802" width="14.3984375" style="290" customWidth="1"/>
-    <col min="12803" max="12803" width="12.296875" style="290" customWidth="1"/>
-    <col min="12804" max="12804" width="15.59765625" style="290" customWidth="1"/>
-    <col min="12805" max="12805" width="4" style="290" customWidth="1"/>
-    <col min="12806" max="12806" width="13.69921875" style="290" customWidth="1"/>
-    <col min="12807" max="12807" width="13.3984375" style="290" customWidth="1"/>
-    <col min="12808" max="12810" width="9.09765625" style="290"/>
-    <col min="12811" max="12811" width="14.8984375" style="290" customWidth="1"/>
-    <col min="12812" max="13050" width="9.09765625" style="290"/>
-    <col min="13051" max="13052" width="9.3984375" style="290" customWidth="1"/>
-    <col min="13053" max="13053" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13054" max="13054" width="16.296875" style="290" customWidth="1"/>
-    <col min="13055" max="13056" width="8.59765625" style="290" customWidth="1"/>
-    <col min="13057" max="13057" width="12.296875" style="290" customWidth="1"/>
-    <col min="13058" max="13058" width="14.3984375" style="290" customWidth="1"/>
-    <col min="13059" max="13059" width="12.296875" style="290" customWidth="1"/>
-    <col min="13060" max="13060" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13061" max="13061" width="4" style="290" customWidth="1"/>
-    <col min="13062" max="13062" width="13.69921875" style="290" customWidth="1"/>
-    <col min="13063" max="13063" width="13.3984375" style="290" customWidth="1"/>
-    <col min="13064" max="13066" width="9.09765625" style="290"/>
-    <col min="13067" max="13067" width="14.8984375" style="290" customWidth="1"/>
-    <col min="13068" max="13306" width="9.09765625" style="290"/>
-    <col min="13307" max="13308" width="9.3984375" style="290" customWidth="1"/>
-    <col min="13309" max="13309" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13310" max="13310" width="16.296875" style="290" customWidth="1"/>
-    <col min="13311" max="13312" width="8.59765625" style="290" customWidth="1"/>
-    <col min="13313" max="13313" width="12.296875" style="290" customWidth="1"/>
-    <col min="13314" max="13314" width="14.3984375" style="290" customWidth="1"/>
-    <col min="13315" max="13315" width="12.296875" style="290" customWidth="1"/>
-    <col min="13316" max="13316" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13317" max="13317" width="4" style="290" customWidth="1"/>
-    <col min="13318" max="13318" width="13.69921875" style="290" customWidth="1"/>
-    <col min="13319" max="13319" width="13.3984375" style="290" customWidth="1"/>
-    <col min="13320" max="13322" width="9.09765625" style="290"/>
-    <col min="13323" max="13323" width="14.8984375" style="290" customWidth="1"/>
-    <col min="13324" max="13562" width="9.09765625" style="290"/>
-    <col min="13563" max="13564" width="9.3984375" style="290" customWidth="1"/>
-    <col min="13565" max="13565" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13566" max="13566" width="16.296875" style="290" customWidth="1"/>
-    <col min="13567" max="13568" width="8.59765625" style="290" customWidth="1"/>
-    <col min="13569" max="13569" width="12.296875" style="290" customWidth="1"/>
-    <col min="13570" max="13570" width="14.3984375" style="290" customWidth="1"/>
-    <col min="13571" max="13571" width="12.296875" style="290" customWidth="1"/>
-    <col min="13572" max="13572" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13573" max="13573" width="4" style="290" customWidth="1"/>
-    <col min="13574" max="13574" width="13.69921875" style="290" customWidth="1"/>
-    <col min="13575" max="13575" width="13.3984375" style="290" customWidth="1"/>
-    <col min="13576" max="13578" width="9.09765625" style="290"/>
-    <col min="13579" max="13579" width="14.8984375" style="290" customWidth="1"/>
-    <col min="13580" max="13818" width="9.09765625" style="290"/>
-    <col min="13819" max="13820" width="9.3984375" style="290" customWidth="1"/>
-    <col min="13821" max="13821" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13822" max="13822" width="16.296875" style="290" customWidth="1"/>
-    <col min="13823" max="13824" width="8.59765625" style="290" customWidth="1"/>
-    <col min="13825" max="13825" width="12.296875" style="290" customWidth="1"/>
-    <col min="13826" max="13826" width="14.3984375" style="290" customWidth="1"/>
-    <col min="13827" max="13827" width="12.296875" style="290" customWidth="1"/>
-    <col min="13828" max="13828" width="15.59765625" style="290" customWidth="1"/>
-    <col min="13829" max="13829" width="4" style="290" customWidth="1"/>
-    <col min="13830" max="13830" width="13.69921875" style="290" customWidth="1"/>
-    <col min="13831" max="13831" width="13.3984375" style="290" customWidth="1"/>
-    <col min="13832" max="13834" width="9.09765625" style="290"/>
-    <col min="13835" max="13835" width="14.8984375" style="290" customWidth="1"/>
-    <col min="13836" max="14074" width="9.09765625" style="290"/>
-    <col min="14075" max="14076" width="9.3984375" style="290" customWidth="1"/>
-    <col min="14077" max="14077" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14078" max="14078" width="16.296875" style="290" customWidth="1"/>
-    <col min="14079" max="14080" width="8.59765625" style="290" customWidth="1"/>
-    <col min="14081" max="14081" width="12.296875" style="290" customWidth="1"/>
-    <col min="14082" max="14082" width="14.3984375" style="290" customWidth="1"/>
-    <col min="14083" max="14083" width="12.296875" style="290" customWidth="1"/>
-    <col min="14084" max="14084" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14085" max="14085" width="4" style="290" customWidth="1"/>
-    <col min="14086" max="14086" width="13.69921875" style="290" customWidth="1"/>
-    <col min="14087" max="14087" width="13.3984375" style="290" customWidth="1"/>
-    <col min="14088" max="14090" width="9.09765625" style="290"/>
-    <col min="14091" max="14091" width="14.8984375" style="290" customWidth="1"/>
-    <col min="14092" max="14330" width="9.09765625" style="290"/>
-    <col min="14331" max="14332" width="9.3984375" style="290" customWidth="1"/>
-    <col min="14333" max="14333" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14334" max="14334" width="16.296875" style="290" customWidth="1"/>
-    <col min="14335" max="14336" width="8.59765625" style="290" customWidth="1"/>
-    <col min="14337" max="14337" width="12.296875" style="290" customWidth="1"/>
-    <col min="14338" max="14338" width="14.3984375" style="290" customWidth="1"/>
-    <col min="14339" max="14339" width="12.296875" style="290" customWidth="1"/>
-    <col min="14340" max="14340" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14341" max="14341" width="4" style="290" customWidth="1"/>
-    <col min="14342" max="14342" width="13.69921875" style="290" customWidth="1"/>
-    <col min="14343" max="14343" width="13.3984375" style="290" customWidth="1"/>
-    <col min="14344" max="14346" width="9.09765625" style="290"/>
-    <col min="14347" max="14347" width="14.8984375" style="290" customWidth="1"/>
-    <col min="14348" max="14586" width="9.09765625" style="290"/>
-    <col min="14587" max="14588" width="9.3984375" style="290" customWidth="1"/>
-    <col min="14589" max="14589" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14590" max="14590" width="16.296875" style="290" customWidth="1"/>
-    <col min="14591" max="14592" width="8.59765625" style="290" customWidth="1"/>
-    <col min="14593" max="14593" width="12.296875" style="290" customWidth="1"/>
-    <col min="14594" max="14594" width="14.3984375" style="290" customWidth="1"/>
-    <col min="14595" max="14595" width="12.296875" style="290" customWidth="1"/>
-    <col min="14596" max="14596" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14597" max="14597" width="4" style="290" customWidth="1"/>
-    <col min="14598" max="14598" width="13.69921875" style="290" customWidth="1"/>
-    <col min="14599" max="14599" width="13.3984375" style="290" customWidth="1"/>
-    <col min="14600" max="14602" width="9.09765625" style="290"/>
-    <col min="14603" max="14603" width="14.8984375" style="290" customWidth="1"/>
-    <col min="14604" max="14842" width="9.09765625" style="290"/>
-    <col min="14843" max="14844" width="9.3984375" style="290" customWidth="1"/>
-    <col min="14845" max="14845" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14846" max="14846" width="16.296875" style="290" customWidth="1"/>
-    <col min="14847" max="14848" width="8.59765625" style="290" customWidth="1"/>
-    <col min="14849" max="14849" width="12.296875" style="290" customWidth="1"/>
-    <col min="14850" max="14850" width="14.3984375" style="290" customWidth="1"/>
-    <col min="14851" max="14851" width="12.296875" style="290" customWidth="1"/>
-    <col min="14852" max="14852" width="15.59765625" style="290" customWidth="1"/>
-    <col min="14853" max="14853" width="4" style="290" customWidth="1"/>
-    <col min="14854" max="14854" width="13.69921875" style="290" customWidth="1"/>
-    <col min="14855" max="14855" width="13.3984375" style="290" customWidth="1"/>
-    <col min="14856" max="14858" width="9.09765625" style="290"/>
-    <col min="14859" max="14859" width="14.8984375" style="290" customWidth="1"/>
-    <col min="14860" max="15098" width="9.09765625" style="290"/>
-    <col min="15099" max="15100" width="9.3984375" style="290" customWidth="1"/>
-    <col min="15101" max="15101" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15102" max="15102" width="16.296875" style="290" customWidth="1"/>
-    <col min="15103" max="15104" width="8.59765625" style="290" customWidth="1"/>
-    <col min="15105" max="15105" width="12.296875" style="290" customWidth="1"/>
-    <col min="15106" max="15106" width="14.3984375" style="290" customWidth="1"/>
-    <col min="15107" max="15107" width="12.296875" style="290" customWidth="1"/>
-    <col min="15108" max="15108" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15109" max="15109" width="4" style="290" customWidth="1"/>
-    <col min="15110" max="15110" width="13.69921875" style="290" customWidth="1"/>
-    <col min="15111" max="15111" width="13.3984375" style="290" customWidth="1"/>
-    <col min="15112" max="15114" width="9.09765625" style="290"/>
-    <col min="15115" max="15115" width="14.8984375" style="290" customWidth="1"/>
-    <col min="15116" max="15354" width="9.09765625" style="290"/>
-    <col min="15355" max="15356" width="9.3984375" style="290" customWidth="1"/>
-    <col min="15357" max="15357" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15358" max="15358" width="16.296875" style="290" customWidth="1"/>
-    <col min="15359" max="15360" width="8.59765625" style="290" customWidth="1"/>
-    <col min="15361" max="15361" width="12.296875" style="290" customWidth="1"/>
-    <col min="15362" max="15362" width="14.3984375" style="290" customWidth="1"/>
-    <col min="15363" max="15363" width="12.296875" style="290" customWidth="1"/>
-    <col min="15364" max="15364" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15365" max="15365" width="4" style="290" customWidth="1"/>
-    <col min="15366" max="15366" width="13.69921875" style="290" customWidth="1"/>
-    <col min="15367" max="15367" width="13.3984375" style="290" customWidth="1"/>
-    <col min="15368" max="15370" width="9.09765625" style="290"/>
-    <col min="15371" max="15371" width="14.8984375" style="290" customWidth="1"/>
-    <col min="15372" max="15610" width="9.09765625" style="290"/>
-    <col min="15611" max="15612" width="9.3984375" style="290" customWidth="1"/>
-    <col min="15613" max="15613" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15614" max="15614" width="16.296875" style="290" customWidth="1"/>
-    <col min="15615" max="15616" width="8.59765625" style="290" customWidth="1"/>
-    <col min="15617" max="15617" width="12.296875" style="290" customWidth="1"/>
-    <col min="15618" max="15618" width="14.3984375" style="290" customWidth="1"/>
-    <col min="15619" max="15619" width="12.296875" style="290" customWidth="1"/>
-    <col min="15620" max="15620" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15621" max="15621" width="4" style="290" customWidth="1"/>
-    <col min="15622" max="15622" width="13.69921875" style="290" customWidth="1"/>
-    <col min="15623" max="15623" width="13.3984375" style="290" customWidth="1"/>
-    <col min="15624" max="15626" width="9.09765625" style="290"/>
-    <col min="15627" max="15627" width="14.8984375" style="290" customWidth="1"/>
-    <col min="15628" max="15866" width="9.09765625" style="290"/>
-    <col min="15867" max="15868" width="9.3984375" style="290" customWidth="1"/>
-    <col min="15869" max="15869" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15870" max="15870" width="16.296875" style="290" customWidth="1"/>
-    <col min="15871" max="15872" width="8.59765625" style="290" customWidth="1"/>
-    <col min="15873" max="15873" width="12.296875" style="290" customWidth="1"/>
-    <col min="15874" max="15874" width="14.3984375" style="290" customWidth="1"/>
-    <col min="15875" max="15875" width="12.296875" style="290" customWidth="1"/>
-    <col min="15876" max="15876" width="15.59765625" style="290" customWidth="1"/>
-    <col min="15877" max="15877" width="4" style="290" customWidth="1"/>
-    <col min="15878" max="15878" width="13.69921875" style="290" customWidth="1"/>
-    <col min="15879" max="15879" width="13.3984375" style="290" customWidth="1"/>
-    <col min="15880" max="15882" width="9.09765625" style="290"/>
-    <col min="15883" max="15883" width="14.8984375" style="290" customWidth="1"/>
-    <col min="15884" max="16122" width="9.09765625" style="290"/>
-    <col min="16123" max="16124" width="9.3984375" style="290" customWidth="1"/>
-    <col min="16125" max="16125" width="15.59765625" style="290" customWidth="1"/>
-    <col min="16126" max="16126" width="16.296875" style="290" customWidth="1"/>
-    <col min="16127" max="16128" width="8.59765625" style="290" customWidth="1"/>
-    <col min="16129" max="16129" width="12.296875" style="290" customWidth="1"/>
-    <col min="16130" max="16130" width="14.3984375" style="290" customWidth="1"/>
-    <col min="16131" max="16131" width="12.296875" style="290" customWidth="1"/>
-    <col min="16132" max="16132" width="15.59765625" style="290" customWidth="1"/>
-    <col min="16133" max="16133" width="4" style="290" customWidth="1"/>
-    <col min="16134" max="16134" width="13.69921875" style="290" customWidth="1"/>
-    <col min="16135" max="16135" width="13.3984375" style="290" customWidth="1"/>
-    <col min="16136" max="16138" width="9.09765625" style="290"/>
-    <col min="16139" max="16139" width="14.8984375" style="290" customWidth="1"/>
-    <col min="16140" max="16384" width="9.09765625" style="290"/>
+    <col min="1" max="2" width="9.375" style="254" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="254" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="254" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="254" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="254" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="254" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="254" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="254" customWidth="1"/>
+    <col min="11" max="11" width="4" style="254" customWidth="1"/>
+    <col min="12" max="250" width="9.125" style="254"/>
+    <col min="251" max="252" width="9.375" style="254" customWidth="1"/>
+    <col min="253" max="253" width="15.625" style="254" customWidth="1"/>
+    <col min="254" max="254" width="16.25" style="254" customWidth="1"/>
+    <col min="255" max="256" width="8.625" style="254" customWidth="1"/>
+    <col min="257" max="257" width="12.25" style="254" customWidth="1"/>
+    <col min="258" max="258" width="14.375" style="254" customWidth="1"/>
+    <col min="259" max="259" width="12.25" style="254" customWidth="1"/>
+    <col min="260" max="260" width="15.625" style="254" customWidth="1"/>
+    <col min="261" max="261" width="4" style="254" customWidth="1"/>
+    <col min="262" max="262" width="13.75" style="254" customWidth="1"/>
+    <col min="263" max="263" width="13.375" style="254" customWidth="1"/>
+    <col min="264" max="266" width="9.125" style="254"/>
+    <col min="267" max="267" width="14.875" style="254" customWidth="1"/>
+    <col min="268" max="506" width="9.125" style="254"/>
+    <col min="507" max="508" width="9.375" style="254" customWidth="1"/>
+    <col min="509" max="509" width="15.625" style="254" customWidth="1"/>
+    <col min="510" max="510" width="16.25" style="254" customWidth="1"/>
+    <col min="511" max="512" width="8.625" style="254" customWidth="1"/>
+    <col min="513" max="513" width="12.25" style="254" customWidth="1"/>
+    <col min="514" max="514" width="14.375" style="254" customWidth="1"/>
+    <col min="515" max="515" width="12.25" style="254" customWidth="1"/>
+    <col min="516" max="516" width="15.625" style="254" customWidth="1"/>
+    <col min="517" max="517" width="4" style="254" customWidth="1"/>
+    <col min="518" max="518" width="13.75" style="254" customWidth="1"/>
+    <col min="519" max="519" width="13.375" style="254" customWidth="1"/>
+    <col min="520" max="522" width="9.125" style="254"/>
+    <col min="523" max="523" width="14.875" style="254" customWidth="1"/>
+    <col min="524" max="762" width="9.125" style="254"/>
+    <col min="763" max="764" width="9.375" style="254" customWidth="1"/>
+    <col min="765" max="765" width="15.625" style="254" customWidth="1"/>
+    <col min="766" max="766" width="16.25" style="254" customWidth="1"/>
+    <col min="767" max="768" width="8.625" style="254" customWidth="1"/>
+    <col min="769" max="769" width="12.25" style="254" customWidth="1"/>
+    <col min="770" max="770" width="14.375" style="254" customWidth="1"/>
+    <col min="771" max="771" width="12.25" style="254" customWidth="1"/>
+    <col min="772" max="772" width="15.625" style="254" customWidth="1"/>
+    <col min="773" max="773" width="4" style="254" customWidth="1"/>
+    <col min="774" max="774" width="13.75" style="254" customWidth="1"/>
+    <col min="775" max="775" width="13.375" style="254" customWidth="1"/>
+    <col min="776" max="778" width="9.125" style="254"/>
+    <col min="779" max="779" width="14.875" style="254" customWidth="1"/>
+    <col min="780" max="1018" width="9.125" style="254"/>
+    <col min="1019" max="1020" width="9.375" style="254" customWidth="1"/>
+    <col min="1021" max="1021" width="15.625" style="254" customWidth="1"/>
+    <col min="1022" max="1022" width="16.25" style="254" customWidth="1"/>
+    <col min="1023" max="1024" width="8.625" style="254" customWidth="1"/>
+    <col min="1025" max="1025" width="12.25" style="254" customWidth="1"/>
+    <col min="1026" max="1026" width="14.375" style="254" customWidth="1"/>
+    <col min="1027" max="1027" width="12.25" style="254" customWidth="1"/>
+    <col min="1028" max="1028" width="15.625" style="254" customWidth="1"/>
+    <col min="1029" max="1029" width="4" style="254" customWidth="1"/>
+    <col min="1030" max="1030" width="13.75" style="254" customWidth="1"/>
+    <col min="1031" max="1031" width="13.375" style="254" customWidth="1"/>
+    <col min="1032" max="1034" width="9.125" style="254"/>
+    <col min="1035" max="1035" width="14.875" style="254" customWidth="1"/>
+    <col min="1036" max="1274" width="9.125" style="254"/>
+    <col min="1275" max="1276" width="9.375" style="254" customWidth="1"/>
+    <col min="1277" max="1277" width="15.625" style="254" customWidth="1"/>
+    <col min="1278" max="1278" width="16.25" style="254" customWidth="1"/>
+    <col min="1279" max="1280" width="8.625" style="254" customWidth="1"/>
+    <col min="1281" max="1281" width="12.25" style="254" customWidth="1"/>
+    <col min="1282" max="1282" width="14.375" style="254" customWidth="1"/>
+    <col min="1283" max="1283" width="12.25" style="254" customWidth="1"/>
+    <col min="1284" max="1284" width="15.625" style="254" customWidth="1"/>
+    <col min="1285" max="1285" width="4" style="254" customWidth="1"/>
+    <col min="1286" max="1286" width="13.75" style="254" customWidth="1"/>
+    <col min="1287" max="1287" width="13.375" style="254" customWidth="1"/>
+    <col min="1288" max="1290" width="9.125" style="254"/>
+    <col min="1291" max="1291" width="14.875" style="254" customWidth="1"/>
+    <col min="1292" max="1530" width="9.125" style="254"/>
+    <col min="1531" max="1532" width="9.375" style="254" customWidth="1"/>
+    <col min="1533" max="1533" width="15.625" style="254" customWidth="1"/>
+    <col min="1534" max="1534" width="16.25" style="254" customWidth="1"/>
+    <col min="1535" max="1536" width="8.625" style="254" customWidth="1"/>
+    <col min="1537" max="1537" width="12.25" style="254" customWidth="1"/>
+    <col min="1538" max="1538" width="14.375" style="254" customWidth="1"/>
+    <col min="1539" max="1539" width="12.25" style="254" customWidth="1"/>
+    <col min="1540" max="1540" width="15.625" style="254" customWidth="1"/>
+    <col min="1541" max="1541" width="4" style="254" customWidth="1"/>
+    <col min="1542" max="1542" width="13.75" style="254" customWidth="1"/>
+    <col min="1543" max="1543" width="13.375" style="254" customWidth="1"/>
+    <col min="1544" max="1546" width="9.125" style="254"/>
+    <col min="1547" max="1547" width="14.875" style="254" customWidth="1"/>
+    <col min="1548" max="1786" width="9.125" style="254"/>
+    <col min="1787" max="1788" width="9.375" style="254" customWidth="1"/>
+    <col min="1789" max="1789" width="15.625" style="254" customWidth="1"/>
+    <col min="1790" max="1790" width="16.25" style="254" customWidth="1"/>
+    <col min="1791" max="1792" width="8.625" style="254" customWidth="1"/>
+    <col min="1793" max="1793" width="12.25" style="254" customWidth="1"/>
+    <col min="1794" max="1794" width="14.375" style="254" customWidth="1"/>
+    <col min="1795" max="1795" width="12.25" style="254" customWidth="1"/>
+    <col min="1796" max="1796" width="15.625" style="254" customWidth="1"/>
+    <col min="1797" max="1797" width="4" style="254" customWidth="1"/>
+    <col min="1798" max="1798" width="13.75" style="254" customWidth="1"/>
+    <col min="1799" max="1799" width="13.375" style="254" customWidth="1"/>
+    <col min="1800" max="1802" width="9.125" style="254"/>
+    <col min="1803" max="1803" width="14.875" style="254" customWidth="1"/>
+    <col min="1804" max="2042" width="9.125" style="254"/>
+    <col min="2043" max="2044" width="9.375" style="254" customWidth="1"/>
+    <col min="2045" max="2045" width="15.625" style="254" customWidth="1"/>
+    <col min="2046" max="2046" width="16.25" style="254" customWidth="1"/>
+    <col min="2047" max="2048" width="8.625" style="254" customWidth="1"/>
+    <col min="2049" max="2049" width="12.25" style="254" customWidth="1"/>
+    <col min="2050" max="2050" width="14.375" style="254" customWidth="1"/>
+    <col min="2051" max="2051" width="12.25" style="254" customWidth="1"/>
+    <col min="2052" max="2052" width="15.625" style="254" customWidth="1"/>
+    <col min="2053" max="2053" width="4" style="254" customWidth="1"/>
+    <col min="2054" max="2054" width="13.75" style="254" customWidth="1"/>
+    <col min="2055" max="2055" width="13.375" style="254" customWidth="1"/>
+    <col min="2056" max="2058" width="9.125" style="254"/>
+    <col min="2059" max="2059" width="14.875" style="254" customWidth="1"/>
+    <col min="2060" max="2298" width="9.125" style="254"/>
+    <col min="2299" max="2300" width="9.375" style="254" customWidth="1"/>
+    <col min="2301" max="2301" width="15.625" style="254" customWidth="1"/>
+    <col min="2302" max="2302" width="16.25" style="254" customWidth="1"/>
+    <col min="2303" max="2304" width="8.625" style="254" customWidth="1"/>
+    <col min="2305" max="2305" width="12.25" style="254" customWidth="1"/>
+    <col min="2306" max="2306" width="14.375" style="254" customWidth="1"/>
+    <col min="2307" max="2307" width="12.25" style="254" customWidth="1"/>
+    <col min="2308" max="2308" width="15.625" style="254" customWidth="1"/>
+    <col min="2309" max="2309" width="4" style="254" customWidth="1"/>
+    <col min="2310" max="2310" width="13.75" style="254" customWidth="1"/>
+    <col min="2311" max="2311" width="13.375" style="254" customWidth="1"/>
+    <col min="2312" max="2314" width="9.125" style="254"/>
+    <col min="2315" max="2315" width="14.875" style="254" customWidth="1"/>
+    <col min="2316" max="2554" width="9.125" style="254"/>
+    <col min="2555" max="2556" width="9.375" style="254" customWidth="1"/>
+    <col min="2557" max="2557" width="15.625" style="254" customWidth="1"/>
+    <col min="2558" max="2558" width="16.25" style="254" customWidth="1"/>
+    <col min="2559" max="2560" width="8.625" style="254" customWidth="1"/>
+    <col min="2561" max="2561" width="12.25" style="254" customWidth="1"/>
+    <col min="2562" max="2562" width="14.375" style="254" customWidth="1"/>
+    <col min="2563" max="2563" width="12.25" style="254" customWidth="1"/>
+    <col min="2564" max="2564" width="15.625" style="254" customWidth="1"/>
+    <col min="2565" max="2565" width="4" style="254" customWidth="1"/>
+    <col min="2566" max="2566" width="13.75" style="254" customWidth="1"/>
+    <col min="2567" max="2567" width="13.375" style="254" customWidth="1"/>
+    <col min="2568" max="2570" width="9.125" style="254"/>
+    <col min="2571" max="2571" width="14.875" style="254" customWidth="1"/>
+    <col min="2572" max="2810" width="9.125" style="254"/>
+    <col min="2811" max="2812" width="9.375" style="254" customWidth="1"/>
+    <col min="2813" max="2813" width="15.625" style="254" customWidth="1"/>
+    <col min="2814" max="2814" width="16.25" style="254" customWidth="1"/>
+    <col min="2815" max="2816" width="8.625" style="254" customWidth="1"/>
+    <col min="2817" max="2817" width="12.25" style="254" customWidth="1"/>
+    <col min="2818" max="2818" width="14.375" style="254" customWidth="1"/>
+    <col min="2819" max="2819" width="12.25" style="254" customWidth="1"/>
+    <col min="2820" max="2820" width="15.625" style="254" customWidth="1"/>
+    <col min="2821" max="2821" width="4" style="254" customWidth="1"/>
+    <col min="2822" max="2822" width="13.75" style="254" customWidth="1"/>
+    <col min="2823" max="2823" width="13.375" style="254" customWidth="1"/>
+    <col min="2824" max="2826" width="9.125" style="254"/>
+    <col min="2827" max="2827" width="14.875" style="254" customWidth="1"/>
+    <col min="2828" max="3066" width="9.125" style="254"/>
+    <col min="3067" max="3068" width="9.375" style="254" customWidth="1"/>
+    <col min="3069" max="3069" width="15.625" style="254" customWidth="1"/>
+    <col min="3070" max="3070" width="16.25" style="254" customWidth="1"/>
+    <col min="3071" max="3072" width="8.625" style="254" customWidth="1"/>
+    <col min="3073" max="3073" width="12.25" style="254" customWidth="1"/>
+    <col min="3074" max="3074" width="14.375" style="254" customWidth="1"/>
+    <col min="3075" max="3075" width="12.25" style="254" customWidth="1"/>
+    <col min="3076" max="3076" width="15.625" style="254" customWidth="1"/>
+    <col min="3077" max="3077" width="4" style="254" customWidth="1"/>
+    <col min="3078" max="3078" width="13.75" style="254" customWidth="1"/>
+    <col min="3079" max="3079" width="13.375" style="254" customWidth="1"/>
+    <col min="3080" max="3082" width="9.125" style="254"/>
+    <col min="3083" max="3083" width="14.875" style="254" customWidth="1"/>
+    <col min="3084" max="3322" width="9.125" style="254"/>
+    <col min="3323" max="3324" width="9.375" style="254" customWidth="1"/>
+    <col min="3325" max="3325" width="15.625" style="254" customWidth="1"/>
+    <col min="3326" max="3326" width="16.25" style="254" customWidth="1"/>
+    <col min="3327" max="3328" width="8.625" style="254" customWidth="1"/>
+    <col min="3329" max="3329" width="12.25" style="254" customWidth="1"/>
+    <col min="3330" max="3330" width="14.375" style="254" customWidth="1"/>
+    <col min="3331" max="3331" width="12.25" style="254" customWidth="1"/>
+    <col min="3332" max="3332" width="15.625" style="254" customWidth="1"/>
+    <col min="3333" max="3333" width="4" style="254" customWidth="1"/>
+    <col min="3334" max="3334" width="13.75" style="254" customWidth="1"/>
+    <col min="3335" max="3335" width="13.375" style="254" customWidth="1"/>
+    <col min="3336" max="3338" width="9.125" style="254"/>
+    <col min="3339" max="3339" width="14.875" style="254" customWidth="1"/>
+    <col min="3340" max="3578" width="9.125" style="254"/>
+    <col min="3579" max="3580" width="9.375" style="254" customWidth="1"/>
+    <col min="3581" max="3581" width="15.625" style="254" customWidth="1"/>
+    <col min="3582" max="3582" width="16.25" style="254" customWidth="1"/>
+    <col min="3583" max="3584" width="8.625" style="254" customWidth="1"/>
+    <col min="3585" max="3585" width="12.25" style="254" customWidth="1"/>
+    <col min="3586" max="3586" width="14.375" style="254" customWidth="1"/>
+    <col min="3587" max="3587" width="12.25" style="254" customWidth="1"/>
+    <col min="3588" max="3588" width="15.625" style="254" customWidth="1"/>
+    <col min="3589" max="3589" width="4" style="254" customWidth="1"/>
+    <col min="3590" max="3590" width="13.75" style="254" customWidth="1"/>
+    <col min="3591" max="3591" width="13.375" style="254" customWidth="1"/>
+    <col min="3592" max="3594" width="9.125" style="254"/>
+    <col min="3595" max="3595" width="14.875" style="254" customWidth="1"/>
+    <col min="3596" max="3834" width="9.125" style="254"/>
+    <col min="3835" max="3836" width="9.375" style="254" customWidth="1"/>
+    <col min="3837" max="3837" width="15.625" style="254" customWidth="1"/>
+    <col min="3838" max="3838" width="16.25" style="254" customWidth="1"/>
+    <col min="3839" max="3840" width="8.625" style="254" customWidth="1"/>
+    <col min="3841" max="3841" width="12.25" style="254" customWidth="1"/>
+    <col min="3842" max="3842" width="14.375" style="254" customWidth="1"/>
+    <col min="3843" max="3843" width="12.25" style="254" customWidth="1"/>
+    <col min="3844" max="3844" width="15.625" style="254" customWidth="1"/>
+    <col min="3845" max="3845" width="4" style="254" customWidth="1"/>
+    <col min="3846" max="3846" width="13.75" style="254" customWidth="1"/>
+    <col min="3847" max="3847" width="13.375" style="254" customWidth="1"/>
+    <col min="3848" max="3850" width="9.125" style="254"/>
+    <col min="3851" max="3851" width="14.875" style="254" customWidth="1"/>
+    <col min="3852" max="4090" width="9.125" style="254"/>
+    <col min="4091" max="4092" width="9.375" style="254" customWidth="1"/>
+    <col min="4093" max="4093" width="15.625" style="254" customWidth="1"/>
+    <col min="4094" max="4094" width="16.25" style="254" customWidth="1"/>
+    <col min="4095" max="4096" width="8.625" style="254" customWidth="1"/>
+    <col min="4097" max="4097" width="12.25" style="254" customWidth="1"/>
+    <col min="4098" max="4098" width="14.375" style="254" customWidth="1"/>
+    <col min="4099" max="4099" width="12.25" style="254" customWidth="1"/>
+    <col min="4100" max="4100" width="15.625" style="254" customWidth="1"/>
+    <col min="4101" max="4101" width="4" style="254" customWidth="1"/>
+    <col min="4102" max="4102" width="13.75" style="254" customWidth="1"/>
+    <col min="4103" max="4103" width="13.375" style="254" customWidth="1"/>
+    <col min="4104" max="4106" width="9.125" style="254"/>
+    <col min="4107" max="4107" width="14.875" style="254" customWidth="1"/>
+    <col min="4108" max="4346" width="9.125" style="254"/>
+    <col min="4347" max="4348" width="9.375" style="254" customWidth="1"/>
+    <col min="4349" max="4349" width="15.625" style="254" customWidth="1"/>
+    <col min="4350" max="4350" width="16.25" style="254" customWidth="1"/>
+    <col min="4351" max="4352" width="8.625" style="254" customWidth="1"/>
+    <col min="4353" max="4353" width="12.25" style="254" customWidth="1"/>
+    <col min="4354" max="4354" width="14.375" style="254" customWidth="1"/>
+    <col min="4355" max="4355" width="12.25" style="254" customWidth="1"/>
+    <col min="4356" max="4356" width="15.625" style="254" customWidth="1"/>
+    <col min="4357" max="4357" width="4" style="254" customWidth="1"/>
+    <col min="4358" max="4358" width="13.75" style="254" customWidth="1"/>
+    <col min="4359" max="4359" width="13.375" style="254" customWidth="1"/>
+    <col min="4360" max="4362" width="9.125" style="254"/>
+    <col min="4363" max="4363" width="14.875" style="254" customWidth="1"/>
+    <col min="4364" max="4602" width="9.125" style="254"/>
+    <col min="4603" max="4604" width="9.375" style="254" customWidth="1"/>
+    <col min="4605" max="4605" width="15.625" style="254" customWidth="1"/>
+    <col min="4606" max="4606" width="16.25" style="254" customWidth="1"/>
+    <col min="4607" max="4608" width="8.625" style="254" customWidth="1"/>
+    <col min="4609" max="4609" width="12.25" style="254" customWidth="1"/>
+    <col min="4610" max="4610" width="14.375" style="254" customWidth="1"/>
+    <col min="4611" max="4611" width="12.25" style="254" customWidth="1"/>
+    <col min="4612" max="4612" width="15.625" style="254" customWidth="1"/>
+    <col min="4613" max="4613" width="4" style="254" customWidth="1"/>
+    <col min="4614" max="4614" width="13.75" style="254" customWidth="1"/>
+    <col min="4615" max="4615" width="13.375" style="254" customWidth="1"/>
+    <col min="4616" max="4618" width="9.125" style="254"/>
+    <col min="4619" max="4619" width="14.875" style="254" customWidth="1"/>
+    <col min="4620" max="4858" width="9.125" style="254"/>
+    <col min="4859" max="4860" width="9.375" style="254" customWidth="1"/>
+    <col min="4861" max="4861" width="15.625" style="254" customWidth="1"/>
+    <col min="4862" max="4862" width="16.25" style="254" customWidth="1"/>
+    <col min="4863" max="4864" width="8.625" style="254" customWidth="1"/>
+    <col min="4865" max="4865" width="12.25" style="254" customWidth="1"/>
+    <col min="4866" max="4866" width="14.375" style="254" customWidth="1"/>
+    <col min="4867" max="4867" width="12.25" style="254" customWidth="1"/>
+    <col min="4868" max="4868" width="15.625" style="254" customWidth="1"/>
+    <col min="4869" max="4869" width="4" style="254" customWidth="1"/>
+    <col min="4870" max="4870" width="13.75" style="254" customWidth="1"/>
+    <col min="4871" max="4871" width="13.375" style="254" customWidth="1"/>
+    <col min="4872" max="4874" width="9.125" style="254"/>
+    <col min="4875" max="4875" width="14.875" style="254" customWidth="1"/>
+    <col min="4876" max="5114" width="9.125" style="254"/>
+    <col min="5115" max="5116" width="9.375" style="254" customWidth="1"/>
+    <col min="5117" max="5117" width="15.625" style="254" customWidth="1"/>
+    <col min="5118" max="5118" width="16.25" style="254" customWidth="1"/>
+    <col min="5119" max="5120" width="8.625" style="254" customWidth="1"/>
+    <col min="5121" max="5121" width="12.25" style="254" customWidth="1"/>
+    <col min="5122" max="5122" width="14.375" style="254" customWidth="1"/>
+    <col min="5123" max="5123" width="12.25" style="254" customWidth="1"/>
+    <col min="5124" max="5124" width="15.625" style="254" customWidth="1"/>
+    <col min="5125" max="5125" width="4" style="254" customWidth="1"/>
+    <col min="5126" max="5126" width="13.75" style="254" customWidth="1"/>
+    <col min="5127" max="5127" width="13.375" style="254" customWidth="1"/>
+    <col min="5128" max="5130" width="9.125" style="254"/>
+    <col min="5131" max="5131" width="14.875" style="254" customWidth="1"/>
+    <col min="5132" max="5370" width="9.125" style="254"/>
+    <col min="5371" max="5372" width="9.375" style="254" customWidth="1"/>
+    <col min="5373" max="5373" width="15.625" style="254" customWidth="1"/>
+    <col min="5374" max="5374" width="16.25" style="254" customWidth="1"/>
+    <col min="5375" max="5376" width="8.625" style="254" customWidth="1"/>
+    <col min="5377" max="5377" width="12.25" style="254" customWidth="1"/>
+    <col min="5378" max="5378" width="14.375" style="254" customWidth="1"/>
+    <col min="5379" max="5379" width="12.25" style="254" customWidth="1"/>
+    <col min="5380" max="5380" width="15.625" style="254" customWidth="1"/>
+    <col min="5381" max="5381" width="4" style="254" customWidth="1"/>
+    <col min="5382" max="5382" width="13.75" style="254" customWidth="1"/>
+    <col min="5383" max="5383" width="13.375" style="254" customWidth="1"/>
+    <col min="5384" max="5386" width="9.125" style="254"/>
+    <col min="5387" max="5387" width="14.875" style="254" customWidth="1"/>
+    <col min="5388" max="5626" width="9.125" style="254"/>
+    <col min="5627" max="5628" width="9.375" style="254" customWidth="1"/>
+    <col min="5629" max="5629" width="15.625" style="254" customWidth="1"/>
+    <col min="5630" max="5630" width="16.25" style="254" customWidth="1"/>
+    <col min="5631" max="5632" width="8.625" style="254" customWidth="1"/>
+    <col min="5633" max="5633" width="12.25" style="254" customWidth="1"/>
+    <col min="5634" max="5634" width="14.375" style="254" customWidth="1"/>
+    <col min="5635" max="5635" width="12.25" style="254" customWidth="1"/>
+    <col min="5636" max="5636" width="15.625" style="254" customWidth="1"/>
+    <col min="5637" max="5637" width="4" style="254" customWidth="1"/>
+    <col min="5638" max="5638" width="13.75" style="254" customWidth="1"/>
+    <col min="5639" max="5639" width="13.375" style="254" customWidth="1"/>
+    <col min="5640" max="5642" width="9.125" style="254"/>
+    <col min="5643" max="5643" width="14.875" style="254" customWidth="1"/>
+    <col min="5644" max="5882" width="9.125" style="254"/>
+    <col min="5883" max="5884" width="9.375" style="254" customWidth="1"/>
+    <col min="5885" max="5885" width="15.625" style="254" customWidth="1"/>
+    <col min="5886" max="5886" width="16.25" style="254" customWidth="1"/>
+    <col min="5887" max="5888" width="8.625" style="254" customWidth="1"/>
+    <col min="5889" max="5889" width="12.25" style="254" customWidth="1"/>
+    <col min="5890" max="5890" width="14.375" style="254" customWidth="1"/>
+    <col min="5891" max="5891" width="12.25" style="254" customWidth="1"/>
+    <col min="5892" max="5892" width="15.625" style="254" customWidth="1"/>
+    <col min="5893" max="5893" width="4" style="254" customWidth="1"/>
+    <col min="5894" max="5894" width="13.75" style="254" customWidth="1"/>
+    <col min="5895" max="5895" width="13.375" style="254" customWidth="1"/>
+    <col min="5896" max="5898" width="9.125" style="254"/>
+    <col min="5899" max="5899" width="14.875" style="254" customWidth="1"/>
+    <col min="5900" max="6138" width="9.125" style="254"/>
+    <col min="6139" max="6140" width="9.375" style="254" customWidth="1"/>
+    <col min="6141" max="6141" width="15.625" style="254" customWidth="1"/>
+    <col min="6142" max="6142" width="16.25" style="254" customWidth="1"/>
+    <col min="6143" max="6144" width="8.625" style="254" customWidth="1"/>
+    <col min="6145" max="6145" width="12.25" style="254" customWidth="1"/>
+    <col min="6146" max="6146" width="14.375" style="254" customWidth="1"/>
+    <col min="6147" max="6147" width="12.25" style="254" customWidth="1"/>
+    <col min="6148" max="6148" width="15.625" style="254" customWidth="1"/>
+    <col min="6149" max="6149" width="4" style="254" customWidth="1"/>
+    <col min="6150" max="6150" width="13.75" style="254" customWidth="1"/>
+    <col min="6151" max="6151" width="13.375" style="254" customWidth="1"/>
+    <col min="6152" max="6154" width="9.125" style="254"/>
+    <col min="6155" max="6155" width="14.875" style="254" customWidth="1"/>
+    <col min="6156" max="6394" width="9.125" style="254"/>
+    <col min="6395" max="6396" width="9.375" style="254" customWidth="1"/>
+    <col min="6397" max="6397" width="15.625" style="254" customWidth="1"/>
+    <col min="6398" max="6398" width="16.25" style="254" customWidth="1"/>
+    <col min="6399" max="6400" width="8.625" style="254" customWidth="1"/>
+    <col min="6401" max="6401" width="12.25" style="254" customWidth="1"/>
+    <col min="6402" max="6402" width="14.375" style="254" customWidth="1"/>
+    <col min="6403" max="6403" width="12.25" style="254" customWidth="1"/>
+    <col min="6404" max="6404" width="15.625" style="254" customWidth="1"/>
+    <col min="6405" max="6405" width="4" style="254" customWidth="1"/>
+    <col min="6406" max="6406" width="13.75" style="254" customWidth="1"/>
+    <col min="6407" max="6407" width="13.375" style="254" customWidth="1"/>
+    <col min="6408" max="6410" width="9.125" style="254"/>
+    <col min="6411" max="6411" width="14.875" style="254" customWidth="1"/>
+    <col min="6412" max="6650" width="9.125" style="254"/>
+    <col min="6651" max="6652" width="9.375" style="254" customWidth="1"/>
+    <col min="6653" max="6653" width="15.625" style="254" customWidth="1"/>
+    <col min="6654" max="6654" width="16.25" style="254" customWidth="1"/>
+    <col min="6655" max="6656" width="8.625" style="254" customWidth="1"/>
+    <col min="6657" max="6657" width="12.25" style="254" customWidth="1"/>
+    <col min="6658" max="6658" width="14.375" style="254" customWidth="1"/>
+    <col min="6659" max="6659" width="12.25" style="254" customWidth="1"/>
+    <col min="6660" max="6660" width="15.625" style="254" customWidth="1"/>
+    <col min="6661" max="6661" width="4" style="254" customWidth="1"/>
+    <col min="6662" max="6662" width="13.75" style="254" customWidth="1"/>
+    <col min="6663" max="6663" width="13.375" style="254" customWidth="1"/>
+    <col min="6664" max="6666" width="9.125" style="254"/>
+    <col min="6667" max="6667" width="14.875" style="254" customWidth="1"/>
+    <col min="6668" max="6906" width="9.125" style="254"/>
+    <col min="6907" max="6908" width="9.375" style="254" customWidth="1"/>
+    <col min="6909" max="6909" width="15.625" style="254" customWidth="1"/>
+    <col min="6910" max="6910" width="16.25" style="254" customWidth="1"/>
+    <col min="6911" max="6912" width="8.625" style="254" customWidth="1"/>
+    <col min="6913" max="6913" width="12.25" style="254" customWidth="1"/>
+    <col min="6914" max="6914" width="14.375" style="254" customWidth="1"/>
+    <col min="6915" max="6915" width="12.25" style="254" customWidth="1"/>
+    <col min="6916" max="6916" width="15.625" style="254" customWidth="1"/>
+    <col min="6917" max="6917" width="4" style="254" customWidth="1"/>
+    <col min="6918" max="6918" width="13.75" style="254" customWidth="1"/>
+    <col min="6919" max="6919" width="13.375" style="254" customWidth="1"/>
+    <col min="6920" max="6922" width="9.125" style="254"/>
+    <col min="6923" max="6923" width="14.875" style="254" customWidth="1"/>
+    <col min="6924" max="7162" width="9.125" style="254"/>
+    <col min="7163" max="7164" width="9.375" style="254" customWidth="1"/>
+    <col min="7165" max="7165" width="15.625" style="254" customWidth="1"/>
+    <col min="7166" max="7166" width="16.25" style="254" customWidth="1"/>
+    <col min="7167" max="7168" width="8.625" style="254" customWidth="1"/>
+    <col min="7169" max="7169" width="12.25" style="254" customWidth="1"/>
+    <col min="7170" max="7170" width="14.375" style="254" customWidth="1"/>
+    <col min="7171" max="7171" width="12.25" style="254" customWidth="1"/>
+    <col min="7172" max="7172" width="15.625" style="254" customWidth="1"/>
+    <col min="7173" max="7173" width="4" style="254" customWidth="1"/>
+    <col min="7174" max="7174" width="13.75" style="254" customWidth="1"/>
+    <col min="7175" max="7175" width="13.375" style="254" customWidth="1"/>
+    <col min="7176" max="7178" width="9.125" style="254"/>
+    <col min="7179" max="7179" width="14.875" style="254" customWidth="1"/>
+    <col min="7180" max="7418" width="9.125" style="254"/>
+    <col min="7419" max="7420" width="9.375" style="254" customWidth="1"/>
+    <col min="7421" max="7421" width="15.625" style="254" customWidth="1"/>
+    <col min="7422" max="7422" width="16.25" style="254" customWidth="1"/>
+    <col min="7423" max="7424" width="8.625" style="254" customWidth="1"/>
+    <col min="7425" max="7425" width="12.25" style="254" customWidth="1"/>
+    <col min="7426" max="7426" width="14.375" style="254" customWidth="1"/>
+    <col min="7427" max="7427" width="12.25" style="254" customWidth="1"/>
+    <col min="7428" max="7428" width="15.625" style="254" customWidth="1"/>
+    <col min="7429" max="7429" width="4" style="254" customWidth="1"/>
+    <col min="7430" max="7430" width="13.75" style="254" customWidth="1"/>
+    <col min="7431" max="7431" width="13.375" style="254" customWidth="1"/>
+    <col min="7432" max="7434" width="9.125" style="254"/>
+    <col min="7435" max="7435" width="14.875" style="254" customWidth="1"/>
+    <col min="7436" max="7674" width="9.125" style="254"/>
+    <col min="7675" max="7676" width="9.375" style="254" customWidth="1"/>
+    <col min="7677" max="7677" width="15.625" style="254" customWidth="1"/>
+    <col min="7678" max="7678" width="16.25" style="254" customWidth="1"/>
+    <col min="7679" max="7680" width="8.625" style="254" customWidth="1"/>
+    <col min="7681" max="7681" width="12.25" style="254" customWidth="1"/>
+    <col min="7682" max="7682" width="14.375" style="254" customWidth="1"/>
+    <col min="7683" max="7683" width="12.25" style="254" customWidth="1"/>
+    <col min="7684" max="7684" width="15.625" style="254" customWidth="1"/>
+    <col min="7685" max="7685" width="4" style="254" customWidth="1"/>
+    <col min="7686" max="7686" width="13.75" style="254" customWidth="1"/>
+    <col min="7687" max="7687" width="13.375" style="254" customWidth="1"/>
+    <col min="7688" max="7690" width="9.125" style="254"/>
+    <col min="7691" max="7691" width="14.875" style="254" customWidth="1"/>
+    <col min="7692" max="7930" width="9.125" style="254"/>
+    <col min="7931" max="7932" width="9.375" style="254" customWidth="1"/>
+    <col min="7933" max="7933" width="15.625" style="254" customWidth="1"/>
+    <col min="7934" max="7934" width="16.25" style="254" customWidth="1"/>
+    <col min="7935" max="7936" width="8.625" style="254" customWidth="1"/>
+    <col min="7937" max="7937" width="12.25" style="254" customWidth="1"/>
+    <col min="7938" max="7938" width="14.375" style="254" customWidth="1"/>
+    <col min="7939" max="7939" width="12.25" style="254" customWidth="1"/>
+    <col min="7940" max="7940" width="15.625" style="254" customWidth="1"/>
+    <col min="7941" max="7941" width="4" style="254" customWidth="1"/>
+    <col min="7942" max="7942" width="13.75" style="254" customWidth="1"/>
+    <col min="7943" max="7943" width="13.375" style="254" customWidth="1"/>
+    <col min="7944" max="7946" width="9.125" style="254"/>
+    <col min="7947" max="7947" width="14.875" style="254" customWidth="1"/>
+    <col min="7948" max="8186" width="9.125" style="254"/>
+    <col min="8187" max="8188" width="9.375" style="254" customWidth="1"/>
+    <col min="8189" max="8189" width="15.625" style="254" customWidth="1"/>
+    <col min="8190" max="8190" width="16.25" style="254" customWidth="1"/>
+    <col min="8191" max="8192" width="8.625" style="254" customWidth="1"/>
+    <col min="8193" max="8193" width="12.25" style="254" customWidth="1"/>
+    <col min="8194" max="8194" width="14.375" style="254" customWidth="1"/>
+    <col min="8195" max="8195" width="12.25" style="254" customWidth="1"/>
+    <col min="8196" max="8196" width="15.625" style="254" customWidth="1"/>
+    <col min="8197" max="8197" width="4" style="254" customWidth="1"/>
+    <col min="8198" max="8198" width="13.75" style="254" customWidth="1"/>
+    <col min="8199" max="8199" width="13.375" style="254" customWidth="1"/>
+    <col min="8200" max="8202" width="9.125" style="254"/>
+    <col min="8203" max="8203" width="14.875" style="254" customWidth="1"/>
+    <col min="8204" max="8442" width="9.125" style="254"/>
+    <col min="8443" max="8444" width="9.375" style="254" customWidth="1"/>
+    <col min="8445" max="8445" width="15.625" style="254" customWidth="1"/>
+    <col min="8446" max="8446" width="16.25" style="254" customWidth="1"/>
+    <col min="8447" max="8448" width="8.625" style="254" customWidth="1"/>
+    <col min="8449" max="8449" width="12.25" style="254" customWidth="1"/>
+    <col min="8450" max="8450" width="14.375" style="254" customWidth="1"/>
+    <col min="8451" max="8451" width="12.25" style="254" customWidth="1"/>
+    <col min="8452" max="8452" width="15.625" style="254" customWidth="1"/>
+    <col min="8453" max="8453" width="4" style="254" customWidth="1"/>
+    <col min="8454" max="8454" width="13.75" style="254" customWidth="1"/>
+    <col min="8455" max="8455" width="13.375" style="254" customWidth="1"/>
+    <col min="8456" max="8458" width="9.125" style="254"/>
+    <col min="8459" max="8459" width="14.875" style="254" customWidth="1"/>
+    <col min="8460" max="8698" width="9.125" style="254"/>
+    <col min="8699" max="8700" width="9.375" style="254" customWidth="1"/>
+    <col min="8701" max="8701" width="15.625" style="254" customWidth="1"/>
+    <col min="8702" max="8702" width="16.25" style="254" customWidth="1"/>
+    <col min="8703" max="8704" width="8.625" style="254" customWidth="1"/>
+    <col min="8705" max="8705" width="12.25" style="254" customWidth="1"/>
+    <col min="8706" max="8706" width="14.375" style="254" customWidth="1"/>
+    <col min="8707" max="8707" width="12.25" style="254" customWidth="1"/>
+    <col min="8708" max="8708" width="15.625" style="254" customWidth="1"/>
+    <col min="8709" max="8709" width="4" style="254" customWidth="1"/>
+    <col min="8710" max="8710" width="13.75" style="254" customWidth="1"/>
+    <col min="8711" max="8711" width="13.375" style="254" customWidth="1"/>
+    <col min="8712" max="8714" width="9.125" style="254"/>
+    <col min="8715" max="8715" width="14.875" style="254" customWidth="1"/>
+    <col min="8716" max="8954" width="9.125" style="254"/>
+    <col min="8955" max="8956" width="9.375" style="254" customWidth="1"/>
+    <col min="8957" max="8957" width="15.625" style="254" customWidth="1"/>
+    <col min="8958" max="8958" width="16.25" style="254" customWidth="1"/>
+    <col min="8959" max="8960" width="8.625" style="254" customWidth="1"/>
+    <col min="8961" max="8961" width="12.25" style="254" customWidth="1"/>
+    <col min="8962" max="8962" width="14.375" style="254" customWidth="1"/>
+    <col min="8963" max="8963" width="12.25" style="254" customWidth="1"/>
+    <col min="8964" max="8964" width="15.625" style="254" customWidth="1"/>
+    <col min="8965" max="8965" width="4" style="254" customWidth="1"/>
+    <col min="8966" max="8966" width="13.75" style="254" customWidth="1"/>
+    <col min="8967" max="8967" width="13.375" style="254" customWidth="1"/>
+    <col min="8968" max="8970" width="9.125" style="254"/>
+    <col min="8971" max="8971" width="14.875" style="254" customWidth="1"/>
+    <col min="8972" max="9210" width="9.125" style="254"/>
+    <col min="9211" max="9212" width="9.375" style="254" customWidth="1"/>
+    <col min="9213" max="9213" width="15.625" style="254" customWidth="1"/>
+    <col min="9214" max="9214" width="16.25" style="254" customWidth="1"/>
+    <col min="9215" max="9216" width="8.625" style="254" customWidth="1"/>
+    <col min="9217" max="9217" width="12.25" style="254" customWidth="1"/>
+    <col min="9218" max="9218" width="14.375" style="254" customWidth="1"/>
+    <col min="9219" max="9219" width="12.25" style="254" customWidth="1"/>
+    <col min="9220" max="9220" width="15.625" style="254" customWidth="1"/>
+    <col min="9221" max="9221" width="4" style="254" customWidth="1"/>
+    <col min="9222" max="9222" width="13.75" style="254" customWidth="1"/>
+    <col min="9223" max="9223" width="13.375" style="254" customWidth="1"/>
+    <col min="9224" max="9226" width="9.125" style="254"/>
+    <col min="9227" max="9227" width="14.875" style="254" customWidth="1"/>
+    <col min="9228" max="9466" width="9.125" style="254"/>
+    <col min="9467" max="9468" width="9.375" style="254" customWidth="1"/>
+    <col min="9469" max="9469" width="15.625" style="254" customWidth="1"/>
+    <col min="9470" max="9470" width="16.25" style="254" customWidth="1"/>
+    <col min="9471" max="9472" width="8.625" style="254" customWidth="1"/>
+    <col min="9473" max="9473" width="12.25" style="254" customWidth="1"/>
+    <col min="9474" max="9474" width="14.375" style="254" customWidth="1"/>
+    <col min="9475" max="9475" width="12.25" style="254" customWidth="1"/>
+    <col min="9476" max="9476" width="15.625" style="254" customWidth="1"/>
+    <col min="9477" max="9477" width="4" style="254" customWidth="1"/>
+    <col min="9478" max="9478" width="13.75" style="254" customWidth="1"/>
+    <col min="9479" max="9479" width="13.375" style="254" customWidth="1"/>
+    <col min="9480" max="9482" width="9.125" style="254"/>
+    <col min="9483" max="9483" width="14.875" style="254" customWidth="1"/>
+    <col min="9484" max="9722" width="9.125" style="254"/>
+    <col min="9723" max="9724" width="9.375" style="254" customWidth="1"/>
+    <col min="9725" max="9725" width="15.625" style="254" customWidth="1"/>
+    <col min="9726" max="9726" width="16.25" style="254" customWidth="1"/>
+    <col min="9727" max="9728" width="8.625" style="254" customWidth="1"/>
+    <col min="9729" max="9729" width="12.25" style="254" customWidth="1"/>
+    <col min="9730" max="9730" width="14.375" style="254" customWidth="1"/>
+    <col min="9731" max="9731" width="12.25" style="254" customWidth="1"/>
+    <col min="9732" max="9732" width="15.625" style="254" customWidth="1"/>
+    <col min="9733" max="9733" width="4" style="254" customWidth="1"/>
+    <col min="9734" max="9734" width="13.75" style="254" customWidth="1"/>
+    <col min="9735" max="9735" width="13.375" style="254" customWidth="1"/>
+    <col min="9736" max="9738" width="9.125" style="254"/>
+    <col min="9739" max="9739" width="14.875" style="254" customWidth="1"/>
+    <col min="9740" max="9978" width="9.125" style="254"/>
+    <col min="9979" max="9980" width="9.375" style="254" customWidth="1"/>
+    <col min="9981" max="9981" width="15.625" style="254" customWidth="1"/>
+    <col min="9982" max="9982" width="16.25" style="254" customWidth="1"/>
+    <col min="9983" max="9984" width="8.625" style="254" customWidth="1"/>
+    <col min="9985" max="9985" width="12.25" style="254" customWidth="1"/>
+    <col min="9986" max="9986" width="14.375" style="254" customWidth="1"/>
+    <col min="9987" max="9987" width="12.25" style="254" customWidth="1"/>
+    <col min="9988" max="9988" width="15.625" style="254" customWidth="1"/>
+    <col min="9989" max="9989" width="4" style="254" customWidth="1"/>
+    <col min="9990" max="9990" width="13.75" style="254" customWidth="1"/>
+    <col min="9991" max="9991" width="13.375" style="254" customWidth="1"/>
+    <col min="9992" max="9994" width="9.125" style="254"/>
+    <col min="9995" max="9995" width="14.875" style="254" customWidth="1"/>
+    <col min="9996" max="10234" width="9.125" style="254"/>
+    <col min="10235" max="10236" width="9.375" style="254" customWidth="1"/>
+    <col min="10237" max="10237" width="15.625" style="254" customWidth="1"/>
+    <col min="10238" max="10238" width="16.25" style="254" customWidth="1"/>
+    <col min="10239" max="10240" width="8.625" style="254" customWidth="1"/>
+    <col min="10241" max="10241" width="12.25" style="254" customWidth="1"/>
+    <col min="10242" max="10242" width="14.375" style="254" customWidth="1"/>
+    <col min="10243" max="10243" width="12.25" style="254" customWidth="1"/>
+    <col min="10244" max="10244" width="15.625" style="254" customWidth="1"/>
+    <col min="10245" max="10245" width="4" style="254" customWidth="1"/>
+    <col min="10246" max="10246" width="13.75" style="254" customWidth="1"/>
+    <col min="10247" max="10247" width="13.375" style="254" customWidth="1"/>
+    <col min="10248" max="10250" width="9.125" style="254"/>
+    <col min="10251" max="10251" width="14.875" style="254" customWidth="1"/>
+    <col min="10252" max="10490" width="9.125" style="254"/>
+    <col min="10491" max="10492" width="9.375" style="254" customWidth="1"/>
+    <col min="10493" max="10493" width="15.625" style="254" customWidth="1"/>
+    <col min="10494" max="10494" width="16.25" style="254" customWidth="1"/>
+    <col min="10495" max="10496" width="8.625" style="254" customWidth="1"/>
+    <col min="10497" max="10497" width="12.25" style="254" customWidth="1"/>
+    <col min="10498" max="10498" width="14.375" style="254" customWidth="1"/>
+    <col min="10499" max="10499" width="12.25" style="254" customWidth="1"/>
+    <col min="10500" max="10500" width="15.625" style="254" customWidth="1"/>
+    <col min="10501" max="10501" width="4" style="254" customWidth="1"/>
+    <col min="10502" max="10502" width="13.75" style="254" customWidth="1"/>
+    <col min="10503" max="10503" width="13.375" style="254" customWidth="1"/>
+    <col min="10504" max="10506" width="9.125" style="254"/>
+    <col min="10507" max="10507" width="14.875" style="254" customWidth="1"/>
+    <col min="10508" max="10746" width="9.125" style="254"/>
+    <col min="10747" max="10748" width="9.375" style="254" customWidth="1"/>
+    <col min="10749" max="10749" width="15.625" style="254" customWidth="1"/>
+    <col min="10750" max="10750" width="16.25" style="254" customWidth="1"/>
+    <col min="10751" max="10752" width="8.625" style="254" customWidth="1"/>
+    <col min="10753" max="10753" width="12.25" style="254" customWidth="1"/>
+    <col min="10754" max="10754" width="14.375" style="254" customWidth="1"/>
+    <col min="10755" max="10755" width="12.25" style="254" customWidth="1"/>
+    <col min="10756" max="10756" width="15.625" style="254" customWidth="1"/>
+    <col min="10757" max="10757" width="4" style="254" customWidth="1"/>
+    <col min="10758" max="10758" width="13.75" style="254" customWidth="1"/>
+    <col min="10759" max="10759" width="13.375" style="254" customWidth="1"/>
+    <col min="10760" max="10762" width="9.125" style="254"/>
+    <col min="10763" max="10763" width="14.875" style="254" customWidth="1"/>
+    <col min="10764" max="11002" width="9.125" style="254"/>
+    <col min="11003" max="11004" width="9.375" style="254" customWidth="1"/>
+    <col min="11005" max="11005" width="15.625" style="254" customWidth="1"/>
+    <col min="11006" max="11006" width="16.25" style="254" customWidth="1"/>
+    <col min="11007" max="11008" width="8.625" style="254" customWidth="1"/>
+    <col min="11009" max="11009" width="12.25" style="254" customWidth="1"/>
+    <col min="11010" max="11010" width="14.375" style="254" customWidth="1"/>
+    <col min="11011" max="11011" width="12.25" style="254" customWidth="1"/>
+    <col min="11012" max="11012" width="15.625" style="254" customWidth="1"/>
+    <col min="11013" max="11013" width="4" style="254" customWidth="1"/>
+    <col min="11014" max="11014" width="13.75" style="254" customWidth="1"/>
+    <col min="11015" max="11015" width="13.375" style="254" customWidth="1"/>
+    <col min="11016" max="11018" width="9.125" style="254"/>
+    <col min="11019" max="11019" width="14.875" style="254" customWidth="1"/>
+    <col min="11020" max="11258" width="9.125" style="254"/>
+    <col min="11259" max="11260" width="9.375" style="254" customWidth="1"/>
+    <col min="11261" max="11261" width="15.625" style="254" customWidth="1"/>
+    <col min="11262" max="11262" width="16.25" style="254" customWidth="1"/>
+    <col min="11263" max="11264" width="8.625" style="254" customWidth="1"/>
+    <col min="11265" max="11265" width="12.25" style="254" customWidth="1"/>
+    <col min="11266" max="11266" width="14.375" style="254" customWidth="1"/>
+    <col min="11267" max="11267" width="12.25" style="254" customWidth="1"/>
+    <col min="11268" max="11268" width="15.625" style="254" customWidth="1"/>
+    <col min="11269" max="11269" width="4" style="254" customWidth="1"/>
+    <col min="11270" max="11270" width="13.75" style="254" customWidth="1"/>
+    <col min="11271" max="11271" width="13.375" style="254" customWidth="1"/>
+    <col min="11272" max="11274" width="9.125" style="254"/>
+    <col min="11275" max="11275" width="14.875" style="254" customWidth="1"/>
+    <col min="11276" max="11514" width="9.125" style="254"/>
+    <col min="11515" max="11516" width="9.375" style="254" customWidth="1"/>
+    <col min="11517" max="11517" width="15.625" style="254" customWidth="1"/>
+    <col min="11518" max="11518" width="16.25" style="254" customWidth="1"/>
+    <col min="11519" max="11520" width="8.625" style="254" customWidth="1"/>
+    <col min="11521" max="11521" width="12.25" style="254" customWidth="1"/>
+    <col min="11522" max="11522" width="14.375" style="254" customWidth="1"/>
+    <col min="11523" max="11523" width="12.25" style="254" customWidth="1"/>
+    <col min="11524" max="11524" width="15.625" style="254" customWidth="1"/>
+    <col min="11525" max="11525" width="4" style="254" customWidth="1"/>
+    <col min="11526" max="11526" width="13.75" style="254" customWidth="1"/>
+    <col min="11527" max="11527" width="13.375" style="254" customWidth="1"/>
+    <col min="11528" max="11530" width="9.125" style="254"/>
+    <col min="11531" max="11531" width="14.875" style="254" customWidth="1"/>
+    <col min="11532" max="11770" width="9.125" style="254"/>
+    <col min="11771" max="11772" width="9.375" style="254" customWidth="1"/>
+    <col min="11773" max="11773" width="15.625" style="254" customWidth="1"/>
+    <col min="11774" max="11774" width="16.25" style="254" customWidth="1"/>
+    <col min="11775" max="11776" width="8.625" style="254" customWidth="1"/>
+    <col min="11777" max="11777" width="12.25" style="254" customWidth="1"/>
+    <col min="11778" max="11778" width="14.375" style="254" customWidth="1"/>
+    <col min="11779" max="11779" width="12.25" style="254" customWidth="1"/>
+    <col min="11780" max="11780" width="15.625" style="254" customWidth="1"/>
+    <col min="11781" max="11781" width="4" style="254" customWidth="1"/>
+    <col min="11782" max="11782" width="13.75" style="254" customWidth="1"/>
+    <col min="11783" max="11783" width="13.375" style="254" customWidth="1"/>
+    <col min="11784" max="11786" width="9.125" style="254"/>
+    <col min="11787" max="11787" width="14.875" style="254" customWidth="1"/>
+    <col min="11788" max="12026" width="9.125" style="254"/>
+    <col min="12027" max="12028" width="9.375" style="254" customWidth="1"/>
+    <col min="12029" max="12029" width="15.625" style="254" customWidth="1"/>
+    <col min="12030" max="12030" width="16.25" style="254" customWidth="1"/>
+    <col min="12031" max="12032" width="8.625" style="254" customWidth="1"/>
+    <col min="12033" max="12033" width="12.25" style="254" customWidth="1"/>
+    <col min="12034" max="12034" width="14.375" style="254" customWidth="1"/>
+    <col min="12035" max="12035" width="12.25" style="254" customWidth="1"/>
+    <col min="12036" max="12036" width="15.625" style="254" customWidth="1"/>
+    <col min="12037" max="12037" width="4" style="254" customWidth="1"/>
+    <col min="12038" max="12038" width="13.75" style="254" customWidth="1"/>
+    <col min="12039" max="12039" width="13.375" style="254" customWidth="1"/>
+    <col min="12040" max="12042" width="9.125" style="254"/>
+    <col min="12043" max="12043" width="14.875" style="254" customWidth="1"/>
+    <col min="12044" max="12282" width="9.125" style="254"/>
+    <col min="12283" max="12284" width="9.375" style="254" customWidth="1"/>
+    <col min="12285" max="12285" width="15.625" style="254" customWidth="1"/>
+    <col min="12286" max="12286" width="16.25" style="254" customWidth="1"/>
+    <col min="12287" max="12288" width="8.625" style="254" customWidth="1"/>
+    <col min="12289" max="12289" width="12.25" style="254" customWidth="1"/>
+    <col min="12290" max="12290" width="14.375" style="254" customWidth="1"/>
+    <col min="12291" max="12291" width="12.25" style="254" customWidth="1"/>
+    <col min="12292" max="12292" width="15.625" style="254" customWidth="1"/>
+    <col min="12293" max="12293" width="4" style="254" customWidth="1"/>
+    <col min="12294" max="12294" width="13.75" style="254" customWidth="1"/>
+    <col min="12295" max="12295" width="13.375" style="254" customWidth="1"/>
+    <col min="12296" max="12298" width="9.125" style="254"/>
+    <col min="12299" max="12299" width="14.875" style="254" customWidth="1"/>
+    <col min="12300" max="12538" width="9.125" style="254"/>
+    <col min="12539" max="12540" width="9.375" style="254" customWidth="1"/>
+    <col min="12541" max="12541" width="15.625" style="254" customWidth="1"/>
+    <col min="12542" max="12542" width="16.25" style="254" customWidth="1"/>
+    <col min="12543" max="12544" width="8.625" style="254" customWidth="1"/>
+    <col min="12545" max="12545" width="12.25" style="254" customWidth="1"/>
+    <col min="12546" max="12546" width="14.375" style="254" customWidth="1"/>
+    <col min="12547" max="12547" width="12.25" style="254" customWidth="1"/>
+    <col min="12548" max="12548" width="15.625" style="254" customWidth="1"/>
+    <col min="12549" max="12549" width="4" style="254" customWidth="1"/>
+    <col min="12550" max="12550" width="13.75" style="254" customWidth="1"/>
+    <col min="12551" max="12551" width="13.375" style="254" customWidth="1"/>
+    <col min="12552" max="12554" width="9.125" style="254"/>
+    <col min="12555" max="12555" width="14.875" style="254" customWidth="1"/>
+    <col min="12556" max="12794" width="9.125" style="254"/>
+    <col min="12795" max="12796" width="9.375" style="254" customWidth="1"/>
+    <col min="12797" max="12797" width="15.625" style="254" customWidth="1"/>
+    <col min="12798" max="12798" width="16.25" style="254" customWidth="1"/>
+    <col min="12799" max="12800" width="8.625" style="254" customWidth="1"/>
+    <col min="12801" max="12801" width="12.25" style="254" customWidth="1"/>
+    <col min="12802" max="12802" width="14.375" style="254" customWidth="1"/>
+    <col min="12803" max="12803" width="12.25" style="254" customWidth="1"/>
+    <col min="12804" max="12804" width="15.625" style="254" customWidth="1"/>
+    <col min="12805" max="12805" width="4" style="254" customWidth="1"/>
+    <col min="12806" max="12806" width="13.75" style="254" customWidth="1"/>
+    <col min="12807" max="12807" width="13.375" style="254" customWidth="1"/>
+    <col min="12808" max="12810" width="9.125" style="254"/>
+    <col min="12811" max="12811" width="14.875" style="254" customWidth="1"/>
+    <col min="12812" max="13050" width="9.125" style="254"/>
+    <col min="13051" max="13052" width="9.375" style="254" customWidth="1"/>
+    <col min="13053" max="13053" width="15.625" style="254" customWidth="1"/>
+    <col min="13054" max="13054" width="16.25" style="254" customWidth="1"/>
+    <col min="13055" max="13056" width="8.625" style="254" customWidth="1"/>
+    <col min="13057" max="13057" width="12.25" style="254" customWidth="1"/>
+    <col min="13058" max="13058" width="14.375" style="254" customWidth="1"/>
+    <col min="13059" max="13059" width="12.25" style="254" customWidth="1"/>
+    <col min="13060" max="13060" width="15.625" style="254" customWidth="1"/>
+    <col min="13061" max="13061" width="4" style="254" customWidth="1"/>
+    <col min="13062" max="13062" width="13.75" style="254" customWidth="1"/>
+    <col min="13063" max="13063" width="13.375" style="254" customWidth="1"/>
+    <col min="13064" max="13066" width="9.125" style="254"/>
+    <col min="13067" max="13067" width="14.875" style="254" customWidth="1"/>
+    <col min="13068" max="13306" width="9.125" style="254"/>
+    <col min="13307" max="13308" width="9.375" style="254" customWidth="1"/>
+    <col min="13309" max="13309" width="15.625" style="254" customWidth="1"/>
+    <col min="13310" max="13310" width="16.25" style="254" customWidth="1"/>
+    <col min="13311" max="13312" width="8.625" style="254" customWidth="1"/>
+    <col min="13313" max="13313" width="12.25" style="254" customWidth="1"/>
+    <col min="13314" max="13314" width="14.375" style="254" customWidth="1"/>
+    <col min="13315" max="13315" width="12.25" style="254" customWidth="1"/>
+    <col min="13316" max="13316" width="15.625" style="254" customWidth="1"/>
+    <col min="13317" max="13317" width="4" style="254" customWidth="1"/>
+    <col min="13318" max="13318" width="13.75" style="254" customWidth="1"/>
+    <col min="13319" max="13319" width="13.375" style="254" customWidth="1"/>
+    <col min="13320" max="13322" width="9.125" style="254"/>
+    <col min="13323" max="13323" width="14.875" style="254" customWidth="1"/>
+    <col min="13324" max="13562" width="9.125" style="254"/>
+    <col min="13563" max="13564" width="9.375" style="254" customWidth="1"/>
+    <col min="13565" max="13565" width="15.625" style="254" customWidth="1"/>
+    <col min="13566" max="13566" width="16.25" style="254" customWidth="1"/>
+    <col min="13567" max="13568" width="8.625" style="254" customWidth="1"/>
+    <col min="13569" max="13569" width="12.25" style="254" customWidth="1"/>
+    <col min="13570" max="13570" width="14.375" style="254" customWidth="1"/>
+    <col min="13571" max="13571" width="12.25" style="254" customWidth="1"/>
+    <col min="13572" max="13572" width="15.625" style="254" customWidth="1"/>
+    <col min="13573" max="13573" width="4" style="254" customWidth="1"/>
+    <col min="13574" max="13574" width="13.75" style="254" customWidth="1"/>
+    <col min="13575" max="13575" width="13.375" style="254" customWidth="1"/>
+    <col min="13576" max="13578" width="9.125" style="254"/>
+    <col min="13579" max="13579" width="14.875" style="254" customWidth="1"/>
+    <col min="13580" max="13818" width="9.125" style="254"/>
+    <col min="13819" max="13820" width="9.375" style="254" customWidth="1"/>
+    <col min="13821" max="13821" width="15.625" style="254" customWidth="1"/>
+    <col min="13822" max="13822" width="16.25" style="254" customWidth="1"/>
+    <col min="13823" max="13824" width="8.625" style="254" customWidth="1"/>
+    <col min="13825" max="13825" width="12.25" style="254" customWidth="1"/>
+    <col min="13826" max="13826" width="14.375" style="254" customWidth="1"/>
+    <col min="13827" max="13827" width="12.25" style="254" customWidth="1"/>
+    <col min="13828" max="13828" width="15.625" style="254" customWidth="1"/>
+    <col min="13829" max="13829" width="4" style="254" customWidth="1"/>
+    <col min="13830" max="13830" width="13.75" style="254" customWidth="1"/>
+    <col min="13831" max="13831" width="13.375" style="254" customWidth="1"/>
+    <col min="13832" max="13834" width="9.125" style="254"/>
+    <col min="13835" max="13835" width="14.875" style="254" customWidth="1"/>
+    <col min="13836" max="14074" width="9.125" style="254"/>
+    <col min="14075" max="14076" width="9.375" style="254" customWidth="1"/>
+    <col min="14077" max="14077" width="15.625" style="254" customWidth="1"/>
+    <col min="14078" max="14078" width="16.25" style="254" customWidth="1"/>
+    <col min="14079" max="14080" width="8.625" style="254" customWidth="1"/>
+    <col min="14081" max="14081" width="12.25" style="254" customWidth="1"/>
+    <col min="14082" max="14082" width="14.375" style="254" customWidth="1"/>
+    <col min="14083" max="14083" width="12.25" style="254" customWidth="1"/>
+    <col min="14084" max="14084" width="15.625" style="254" customWidth="1"/>
+    <col min="14085" max="14085" width="4" style="254" customWidth="1"/>
+    <col min="14086" max="14086" width="13.75" style="254" customWidth="1"/>
+    <col min="14087" max="14087" width="13.375" style="254" customWidth="1"/>
+    <col min="14088" max="14090" width="9.125" style="254"/>
+    <col min="14091" max="14091" width="14.875" style="254" customWidth="1"/>
+    <col min="14092" max="14330" width="9.125" style="254"/>
+    <col min="14331" max="14332" width="9.375" style="254" customWidth="1"/>
+    <col min="14333" max="14333" width="15.625" style="254" customWidth="1"/>
+    <col min="14334" max="14334" width="16.25" style="254" customWidth="1"/>
+    <col min="14335" max="14336" width="8.625" style="254" customWidth="1"/>
+    <col min="14337" max="14337" width="12.25" style="254" customWidth="1"/>
+    <col min="14338" max="14338" width="14.375" style="254" customWidth="1"/>
+    <col min="14339" max="14339" width="12.25" style="254" customWidth="1"/>
+    <col min="14340" max="14340" width="15.625" style="254" customWidth="1"/>
+    <col min="14341" max="14341" width="4" style="254" customWidth="1"/>
+    <col min="14342" max="14342" width="13.75" style="254" customWidth="1"/>
+    <col min="14343" max="14343" width="13.375" style="254" customWidth="1"/>
+    <col min="14344" max="14346" width="9.125" style="254"/>
+    <col min="14347" max="14347" width="14.875" style="254" customWidth="1"/>
+    <col min="14348" max="14586" width="9.125" style="254"/>
+    <col min="14587" max="14588" width="9.375" style="254" customWidth="1"/>
+    <col min="14589" max="14589" width="15.625" style="254" customWidth="1"/>
+    <col min="14590" max="14590" width="16.25" style="254" customWidth="1"/>
+    <col min="14591" max="14592" width="8.625" style="254" customWidth="1"/>
+    <col min="14593" max="14593" width="12.25" style="254" customWidth="1"/>
+    <col min="14594" max="14594" width="14.375" style="254" customWidth="1"/>
+    <col min="14595" max="14595" width="12.25" style="254" customWidth="1"/>
+    <col min="14596" max="14596" width="15.625" style="254" customWidth="1"/>
+    <col min="14597" max="14597" width="4" style="254" customWidth="1"/>
+    <col min="14598" max="14598" width="13.75" style="254" customWidth="1"/>
+    <col min="14599" max="14599" width="13.375" style="254" customWidth="1"/>
+    <col min="14600" max="14602" width="9.125" style="254"/>
+    <col min="14603" max="14603" width="14.875" style="254" customWidth="1"/>
+    <col min="14604" max="14842" width="9.125" style="254"/>
+    <col min="14843" max="14844" width="9.375" style="254" customWidth="1"/>
+    <col min="14845" max="14845" width="15.625" style="254" customWidth="1"/>
+    <col min="14846" max="14846" width="16.25" style="254" customWidth="1"/>
+    <col min="14847" max="14848" width="8.625" style="254" customWidth="1"/>
+    <col min="14849" max="14849" width="12.25" style="254" customWidth="1"/>
+    <col min="14850" max="14850" width="14.375" style="254" customWidth="1"/>
+    <col min="14851" max="14851" width="12.25" style="254" customWidth="1"/>
+    <col min="14852" max="14852" width="15.625" style="254" customWidth="1"/>
+    <col min="14853" max="14853" width="4" style="254" customWidth="1"/>
+    <col min="14854" max="14854" width="13.75" style="254" customWidth="1"/>
+    <col min="14855" max="14855" width="13.375" style="254" customWidth="1"/>
+    <col min="14856" max="14858" width="9.125" style="254"/>
+    <col min="14859" max="14859" width="14.875" style="254" customWidth="1"/>
+    <col min="14860" max="15098" width="9.125" style="254"/>
+    <col min="15099" max="15100" width="9.375" style="254" customWidth="1"/>
+    <col min="15101" max="15101" width="15.625" style="254" customWidth="1"/>
+    <col min="15102" max="15102" width="16.25" style="254" customWidth="1"/>
+    <col min="15103" max="15104" width="8.625" style="254" customWidth="1"/>
+    <col min="15105" max="15105" width="12.25" style="254" customWidth="1"/>
+    <col min="15106" max="15106" width="14.375" style="254" customWidth="1"/>
+    <col min="15107" max="15107" width="12.25" style="254" customWidth="1"/>
+    <col min="15108" max="15108" width="15.625" style="254" customWidth="1"/>
+    <col min="15109" max="15109" width="4" style="254" customWidth="1"/>
+    <col min="15110" max="15110" width="13.75" style="254" customWidth="1"/>
+    <col min="15111" max="15111" width="13.375" style="254" customWidth="1"/>
+    <col min="15112" max="15114" width="9.125" style="254"/>
+    <col min="15115" max="15115" width="14.875" style="254" customWidth="1"/>
+    <col min="15116" max="15354" width="9.125" style="254"/>
+    <col min="15355" max="15356" width="9.375" style="254" customWidth="1"/>
+    <col min="15357" max="15357" width="15.625" style="254" customWidth="1"/>
+    <col min="15358" max="15358" width="16.25" style="254" customWidth="1"/>
+    <col min="15359" max="15360" width="8.625" style="254" customWidth="1"/>
+    <col min="15361" max="15361" width="12.25" style="254" customWidth="1"/>
+    <col min="15362" max="15362" width="14.375" style="254" customWidth="1"/>
+    <col min="15363" max="15363" width="12.25" style="254" customWidth="1"/>
+    <col min="15364" max="15364" width="15.625" style="254" customWidth="1"/>
+    <col min="15365" max="15365" width="4" style="254" customWidth="1"/>
+    <col min="15366" max="15366" width="13.75" style="254" customWidth="1"/>
+    <col min="15367" max="15367" width="13.375" style="254" customWidth="1"/>
+    <col min="15368" max="15370" width="9.125" style="254"/>
+    <col min="15371" max="15371" width="14.875" style="254" customWidth="1"/>
+    <col min="15372" max="15610" width="9.125" style="254"/>
+    <col min="15611" max="15612" width="9.375" style="254" customWidth="1"/>
+    <col min="15613" max="15613" width="15.625" style="254" customWidth="1"/>
+    <col min="15614" max="15614" width="16.25" style="254" customWidth="1"/>
+    <col min="15615" max="15616" width="8.625" style="254" customWidth="1"/>
+    <col min="15617" max="15617" width="12.25" style="254" customWidth="1"/>
+    <col min="15618" max="15618" width="14.375" style="254" customWidth="1"/>
+    <col min="15619" max="15619" width="12.25" style="254" customWidth="1"/>
+    <col min="15620" max="15620" width="15.625" style="254" customWidth="1"/>
+    <col min="15621" max="15621" width="4" style="254" customWidth="1"/>
+    <col min="15622" max="15622" width="13.75" style="254" customWidth="1"/>
+    <col min="15623" max="15623" width="13.375" style="254" customWidth="1"/>
+    <col min="15624" max="15626" width="9.125" style="254"/>
+    <col min="15627" max="15627" width="14.875" style="254" customWidth="1"/>
+    <col min="15628" max="15866" width="9.125" style="254"/>
+    <col min="15867" max="15868" width="9.375" style="254" customWidth="1"/>
+    <col min="15869" max="15869" width="15.625" style="254" customWidth="1"/>
+    <col min="15870" max="15870" width="16.25" style="254" customWidth="1"/>
+    <col min="15871" max="15872" width="8.625" style="254" customWidth="1"/>
+    <col min="15873" max="15873" width="12.25" style="254" customWidth="1"/>
+    <col min="15874" max="15874" width="14.375" style="254" customWidth="1"/>
+    <col min="15875" max="15875" width="12.25" style="254" customWidth="1"/>
+    <col min="15876" max="15876" width="15.625" style="254" customWidth="1"/>
+    <col min="15877" max="15877" width="4" style="254" customWidth="1"/>
+    <col min="15878" max="15878" width="13.75" style="254" customWidth="1"/>
+    <col min="15879" max="15879" width="13.375" style="254" customWidth="1"/>
+    <col min="15880" max="15882" width="9.125" style="254"/>
+    <col min="15883" max="15883" width="14.875" style="254" customWidth="1"/>
+    <col min="15884" max="16122" width="9.125" style="254"/>
+    <col min="16123" max="16124" width="9.375" style="254" customWidth="1"/>
+    <col min="16125" max="16125" width="15.625" style="254" customWidth="1"/>
+    <col min="16126" max="16126" width="16.25" style="254" customWidth="1"/>
+    <col min="16127" max="16128" width="8.625" style="254" customWidth="1"/>
+    <col min="16129" max="16129" width="12.25" style="254" customWidth="1"/>
+    <col min="16130" max="16130" width="14.375" style="254" customWidth="1"/>
+    <col min="16131" max="16131" width="12.25" style="254" customWidth="1"/>
+    <col min="16132" max="16132" width="15.625" style="254" customWidth="1"/>
+    <col min="16133" max="16133" width="4" style="254" customWidth="1"/>
+    <col min="16134" max="16134" width="13.75" style="254" customWidth="1"/>
+    <col min="16135" max="16135" width="13.375" style="254" customWidth="1"/>
+    <col min="16136" max="16138" width="9.125" style="254"/>
+    <col min="16139" max="16139" width="14.875" style="254" customWidth="1"/>
+    <col min="16140" max="16384" width="9.125" style="254"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
@@ -4314,7 +4308,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6">
         <f ca="1">NOW()</f>
-        <v>45162.578658680555</v>
+        <v>45168.573472569442</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
@@ -4347,814 +4341,814 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23">
+      <c r="H3" s="283"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="284">
         <f ca="1">J1</f>
-        <v>45162.578658680555</v>
+        <v>45168.573472569442</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="H4" s="29">
+      <c r="F4" s="25"/>
+      <c r="H4" s="26">
         <v>350</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="285"/>
+    </row>
+    <row r="5" spans="1:10" s="29" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="36" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="A7" s="45" t="s">
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="A7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A8" s="54" t="s">
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A9" s="61" t="s">
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" s="64" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
+      <c r="A9" s="286" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="59">
         <f>14.01/10</f>
         <v>1.401</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60">
         <f>E9*H4/100</f>
         <v>4.9035000000000002</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67" t="s">
+      <c r="H9" s="61"/>
+      <c r="I9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="1:10" s="69" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="62" t="s">
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:10" s="64" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="287"/>
+      <c r="B10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="71" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="66">
         <f>2.67/10</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="67">
         <f>0.027/10</f>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="67">
         <f>E10*H4/100</f>
         <v>0.9345</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="67" t="s">
+      <c r="H10" s="68"/>
+      <c r="I10" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:10" s="69" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="62" t="s">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" s="64" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="287"/>
+      <c r="B11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="66">
         <f>1.33/10</f>
         <v>0.13300000000000001</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="67">
         <f>1.331/10</f>
         <v>0.1331</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="72">
         <f>E11*H4/100</f>
         <v>0.46550000000000002</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="68"/>
+      <c r="I11" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="75"/>
-    </row>
-    <row r="12" spans="1:10" s="69" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="62" t="s">
+      <c r="J11" s="69"/>
+    </row>
+    <row r="12" spans="1:10" s="64" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="287"/>
+      <c r="B12" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="77" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="66">
         <f>1.22/10</f>
         <v>0.122</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="67">
         <f>0.45/10</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="72">
         <f>E12*H4/100</f>
         <v>0.42699999999999994</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="75"/>
-    </row>
-    <row r="13" spans="1:10" s="69" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80" t="s">
+      <c r="H12" s="68"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="69"/>
+    </row>
+    <row r="13" spans="1:10" s="64" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="76">
         <f>SUM(E9:E12)</f>
         <v>1.923</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="77">
         <f>SUM(F10:F12)</f>
         <v>0.18080000000000002</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="78">
         <f>SUM(G9:G12)</f>
         <v>6.7304999999999993</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-    </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" s="64" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A14" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="95"/>
-    </row>
-    <row r="15" spans="1:10" s="69" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" s="64" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A15" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100" t="s">
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="101"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="102" t="s">
+      <c r="J15" s="95"/>
+    </row>
+    <row r="16" spans="1:10" s="64" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A16" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="40" t="s">
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-    </row>
-    <row r="17" spans="1:11" s="69" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="32" t="s">
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" spans="1:11" s="64" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" s="69" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="36" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" s="64" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="27" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="103"/>
+      <c r="I18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" s="69" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="A19" s="45" t="s">
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" s="64" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="A19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="53"/>
-    </row>
-    <row r="20" spans="1:11" s="69" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A20" s="54" t="s">
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:11" s="64" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A20" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="60"/>
-    </row>
-    <row r="21" spans="1:11" s="69" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A21" s="110" t="s">
+      <c r="J20" s="56"/>
+    </row>
+    <row r="21" spans="1:11" s="64" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
+      <c r="A21" s="288" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="106">
         <f>63.59/10</f>
         <v>6.359</v>
       </c>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114">
+      <c r="F21" s="106"/>
+      <c r="G21" s="107">
         <f>E21*H4/100</f>
         <v>22.256500000000003</v>
       </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="67" t="s">
+      <c r="H21" s="108"/>
+      <c r="I21" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="75"/>
-    </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117" t="s">
+      <c r="J21" s="69"/>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A22" s="289"/>
+      <c r="B22" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118" t="s">
+      <c r="C22" s="109"/>
+      <c r="D22" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="111">
         <f>21.4/10</f>
         <v>2.1399999999999997</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="111">
         <f>8.133/10</f>
         <v>0.81329999999999991</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="112">
         <f>E22*H4/100</f>
         <v>7.4899999999999984</v>
       </c>
-      <c r="H22" s="121"/>
-      <c r="I22" s="67" t="s">
+      <c r="H22" s="113"/>
+      <c r="I22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="75"/>
-    </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117" t="s">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:11" s="25" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A23" s="289"/>
+      <c r="B23" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="122" t="s">
+      <c r="C23" s="109"/>
+      <c r="D23" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="123">
+      <c r="E23" s="115">
         <f>16.27/10</f>
         <v>1.627</v>
       </c>
-      <c r="F23" s="123">
+      <c r="F23" s="115">
         <f>8.133/10</f>
         <v>0.81329999999999991</v>
       </c>
-      <c r="G23" s="124">
+      <c r="G23" s="116">
         <f>E23*H4/100</f>
         <v>5.6945000000000006</v>
       </c>
-      <c r="H23" s="121"/>
-      <c r="I23" s="67" t="s">
+      <c r="H23" s="113"/>
+      <c r="I23" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="75"/>
-    </row>
-    <row r="24" spans="1:11" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="62" t="s">
+      <c r="J23" s="69"/>
+    </row>
+    <row r="24" spans="1:11" s="25" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="289"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="126">
+      <c r="E24" s="118">
         <f>E13</f>
         <v>1.923</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="115">
         <f>F13</f>
         <v>0.18080000000000002</v>
       </c>
-      <c r="G24" s="124">
+      <c r="G24" s="116">
         <f>G13</f>
         <v>6.7304999999999993</v>
       </c>
-      <c r="H24" s="121"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="75"/>
-    </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="127"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81" t="s">
+      <c r="H24" s="113"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="69"/>
+    </row>
+    <row r="25" spans="1:11" s="25" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="290"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E25" s="76">
         <f>SUM(E21:E24)</f>
         <v>12.048999999999999</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="77">
         <f>SUM(F22:F24)</f>
         <v>1.8073999999999999</v>
       </c>
-      <c r="G25" s="128">
+      <c r="G25" s="119">
         <f>SUM(G21:G24)</f>
         <v>42.171500000000002</v>
       </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="130"/>
-    </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A26" s="88" t="s">
+      <c r="H25" s="120"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="121"/>
+    </row>
+    <row r="26" spans="1:11" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A26" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="131"/>
-      <c r="J26" s="95"/>
-    </row>
-    <row r="27" spans="1:11" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="96" t="s">
+      <c r="I26" s="122"/>
+      <c r="J26" s="89"/>
+    </row>
+    <row r="27" spans="1:11" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A27" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100" t="s">
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="101"/>
-    </row>
-    <row r="28" spans="1:11" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A28" s="102" t="s">
+      <c r="I27" s="64"/>
+      <c r="J27" s="95"/>
+    </row>
+    <row r="28" spans="1:11" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A28" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="40" t="s">
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="107"/>
-    </row>
-    <row r="29" spans="1:11" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="32" t="s">
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
+    </row>
+    <row r="29" spans="1:11" s="25" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="A30" s="133" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="A30" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="135" t="s">
+      <c r="D30" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="136" t="s">
+      <c r="E30" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137" t="s">
+      <c r="F30" s="127"/>
+      <c r="G30" s="259" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="140"/>
-    </row>
-    <row r="31" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A31" s="141" t="s">
+      <c r="H30" s="270"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="271"/>
+      <c r="K30" s="128"/>
+    </row>
+    <row r="31" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A31" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="143" t="s">
+      <c r="D31" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="144" t="s">
+      <c r="E31" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="140"/>
-    </row>
-    <row r="32" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="A32" s="148" t="s">
+      <c r="F31" s="132"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="273"/>
+      <c r="I31" s="273"/>
+      <c r="J31" s="274"/>
+      <c r="K31" s="128"/>
+    </row>
+    <row r="32" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="A32" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="136" t="s">
+      <c r="D32" s="133"/>
+      <c r="E32" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="136"/>
-      <c r="G32" s="151" t="s">
+      <c r="F32" s="127"/>
+      <c r="G32" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="151"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="140"/>
-    </row>
-    <row r="33" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1">
-      <c r="A33" s="154"/>
-      <c r="B33" s="93" t="s">
+      <c r="H32" s="135"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="128"/>
+    </row>
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="A33" s="276"/>
+      <c r="B33" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="156" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="156"/>
-      <c r="G33" s="157" t="s">
+      <c r="F33" s="139"/>
+      <c r="G33" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="157"/>
+      <c r="H33" s="140"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="158"/>
-    </row>
-    <row r="34" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1">
-      <c r="A34" s="159"/>
-      <c r="B34" s="93" t="s">
+      <c r="J33" s="141"/>
+    </row>
+    <row r="34" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="A34" s="277"/>
+      <c r="B34" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="155" t="s">
+      <c r="C34" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="160" t="s">
+      <c r="D34" s="87"/>
+      <c r="E34" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="157" t="s">
+      <c r="F34" s="142"/>
+      <c r="G34" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="157"/>
+      <c r="H34" s="140"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="158"/>
-    </row>
-    <row r="35" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="161" t="s">
+      <c r="J34" s="141"/>
+    </row>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="A35" s="278" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="155" t="s">
+      <c r="C35" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="162" t="s">
+      <c r="D35" s="87"/>
+      <c r="E35" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="162"/>
-      <c r="G35" s="157" t="s">
+      <c r="F35" s="143"/>
+      <c r="G35" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="157"/>
+      <c r="H35" s="140"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="158"/>
-    </row>
-    <row r="36" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1">
-      <c r="A36" s="154"/>
-      <c r="B36" s="93" t="s">
+      <c r="J35" s="141"/>
+    </row>
+    <row r="36" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="A36" s="276"/>
+      <c r="B36" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="156" t="s">
+      <c r="D36" s="87"/>
+      <c r="E36" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="156"/>
-      <c r="G36" s="157" t="s">
+      <c r="F36" s="139"/>
+      <c r="G36" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="157"/>
+      <c r="H36" s="140"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="158"/>
-    </row>
-    <row r="37" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="164" t="s">
+      <c r="J36" s="141"/>
+    </row>
+    <row r="37" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A37" s="279"/>
+      <c r="B37" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="165" t="s">
+      <c r="C37" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="164"/>
-      <c r="E37" s="144" t="s">
+      <c r="D37" s="144"/>
+      <c r="E37" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="144"/>
-      <c r="G37" s="166" t="s">
+      <c r="F37" s="132"/>
+      <c r="G37" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="167"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="169"/>
-    </row>
-    <row r="38" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="170" t="s">
+      <c r="H37" s="147"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
+    </row>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="A38" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="172" t="s">
+      <c r="B38" s="260"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="152" t="s">
+      <c r="F38" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="173"/>
+      <c r="H38" s="151"/>
       <c r="I38" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J38" s="153"/>
-    </row>
-    <row r="39" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A39" s="174"/>
-      <c r="B39" s="175"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="177" t="s">
+      <c r="J38" s="137"/>
+    </row>
+    <row r="39" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A39" s="266"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="178" t="s">
+      <c r="F39" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="180" t="s">
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="J39" s="181"/>
-    </row>
-    <row r="40" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A40" s="182" t="s">
+      <c r="J39" s="157"/>
+    </row>
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A40" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="184" t="s">
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="268" t="s">
         <v>93</v>
       </c>
-      <c r="J40" s="185"/>
+      <c r="J40" s="269"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
@@ -5172,7 +5166,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="6">
         <f ca="1">J1</f>
-        <v>45162.578658680555</v>
+        <v>45168.573472569442</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="12" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
@@ -5197,679 +5191,679 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="12" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A43" s="186" t="str">
+      <c r="A43" s="160" t="str">
         <f>A3</f>
         <v>ผลิตภัณฑ์ / Product item  :  P 1670T1R</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="188" t="s">
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="162" t="s">
         <v>95</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="189" t="s">
+      <c r="F43" s="161"/>
+      <c r="G43" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="190"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="191">
+      <c r="H43" s="164"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="280">
         <f ca="1">J1</f>
-        <v>45162.578658680555</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A44" s="24" t="s">
+        <v>45168.573472569442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A44" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26" t="str">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23" t="str">
         <f>C4</f>
         <v>: 230621-01</v>
       </c>
-      <c r="D44" s="168" t="s">
+      <c r="D44" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="194">
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="167">
         <f>H4</f>
         <v>350</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="195"/>
-    </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A45" s="196" t="s">
+      <c r="I44" s="27"/>
+      <c r="J44" s="281"/>
+    </row>
+    <row r="45" spans="1:10" s="29" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="197"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="197"/>
-      <c r="G45" s="198"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="199"/>
-    </row>
-    <row r="46" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="36" t="s">
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="171"/>
+    </row>
+    <row r="46" spans="1:10" s="25" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A46" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="27" t="s">
+      <c r="E46" s="35"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="109"/>
-      <c r="I46" s="43" t="s">
+      <c r="H46" s="103"/>
+      <c r="I46" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:10" s="28" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A47" s="45" t="s">
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="1:10" s="25" customFormat="1" ht="24.75" customHeight="1" thickTop="1">
+      <c r="A47" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50" t="s">
+      <c r="F47" s="45"/>
+      <c r="G47" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="51" t="s">
+      <c r="H47" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="52" t="s">
+      <c r="I47" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:10" s="28" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A48" s="54" t="s">
+      <c r="J47" s="49"/>
+    </row>
+    <row r="48" spans="1:10" s="25" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A48" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="56" t="s">
+      <c r="D48" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="57" t="s">
+      <c r="H48" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="59" t="s">
+      <c r="I48" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="60"/>
-    </row>
-    <row r="49" spans="1:10" s="207" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="A49" s="200" t="s">
+      <c r="J48" s="56"/>
+    </row>
+    <row r="49" spans="1:10" s="178" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="A49" s="255" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="201" t="s">
+      <c r="B49" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="63" t="s">
+      <c r="D49" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="202">
+      <c r="E49" s="173">
         <f>849.4/10</f>
         <v>84.94</v>
       </c>
-      <c r="F49" s="203">
+      <c r="F49" s="174">
         <v>0</v>
       </c>
-      <c r="G49" s="204">
+      <c r="G49" s="175">
         <f>E49*H4/100</f>
         <v>297.29000000000002</v>
       </c>
-      <c r="H49" s="205"/>
-      <c r="I49" s="67" t="s">
+      <c r="H49" s="176"/>
+      <c r="I49" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="206"/>
-    </row>
-    <row r="50" spans="1:10" s="207" customFormat="1" ht="24" customHeight="1">
-      <c r="A50" s="208"/>
-      <c r="B50" s="209" t="s">
+      <c r="J49" s="177"/>
+    </row>
+    <row r="50" spans="1:10" s="178" customFormat="1" ht="24" customHeight="1">
+      <c r="A50" s="256"/>
+      <c r="B50" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211" t="s">
+      <c r="C50" s="180"/>
+      <c r="D50" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="212">
+      <c r="E50" s="182">
         <f>30.12/10</f>
         <v>3.012</v>
       </c>
-      <c r="F50" s="213">
+      <c r="F50" s="183">
         <v>0.60240000000000005</v>
       </c>
-      <c r="G50" s="214">
+      <c r="G50" s="184">
         <f>E50*H4/100</f>
         <v>10.542</v>
       </c>
-      <c r="H50" s="215"/>
-      <c r="I50" s="67" t="s">
+      <c r="H50" s="185"/>
+      <c r="I50" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="216"/>
-    </row>
-    <row r="51" spans="1:10" s="207" customFormat="1" ht="24" customHeight="1">
-      <c r="A51" s="217"/>
-      <c r="B51" s="218" t="s">
+      <c r="J50" s="186"/>
+    </row>
+    <row r="51" spans="1:10" s="178" customFormat="1" ht="24" customHeight="1">
+      <c r="A51" s="257"/>
+      <c r="B51" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="219">
+      <c r="E51" s="188">
         <f>E25</f>
         <v>12.048999999999999</v>
       </c>
-      <c r="F51" s="220">
+      <c r="F51" s="189">
         <f>F25</f>
         <v>1.8073999999999999</v>
       </c>
-      <c r="G51" s="221">
+      <c r="G51" s="190">
         <f>G25</f>
         <v>42.171500000000002</v>
       </c>
-      <c r="H51" s="222"/>
-      <c r="I51" s="67" t="s">
+      <c r="H51" s="191"/>
+      <c r="I51" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J51" s="216"/>
-    </row>
-    <row r="52" spans="1:10" s="207" customFormat="1" ht="24" customHeight="1">
-      <c r="A52" s="223" t="s">
+      <c r="J51" s="186"/>
+    </row>
+    <row r="52" spans="1:10" s="178" customFormat="1" ht="24" customHeight="1">
+      <c r="A52" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="224">
+      <c r="B52" s="258">
         <v>17</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="225" t="s">
+      <c r="D52" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="226">
+      <c r="E52" s="194">
         <v>0.68840000000000001</v>
       </c>
-      <c r="F52" s="225"/>
-      <c r="G52" s="227">
+      <c r="F52" s="193"/>
+      <c r="G52" s="195">
         <f>E52*H44/100</f>
         <v>2.4093999999999998</v>
       </c>
-      <c r="H52" s="228"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="216"/>
-    </row>
-    <row r="53" spans="1:10" s="207" customFormat="1" ht="24" customHeight="1">
-      <c r="A53" s="229" t="s">
+      <c r="H52" s="196"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="186"/>
+    </row>
+    <row r="53" spans="1:10" s="178" customFormat="1" ht="24" customHeight="1">
+      <c r="A53" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="224"/>
-      <c r="C53" s="230"/>
-      <c r="D53" s="77" t="s">
+      <c r="B53" s="258"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="231">
+      <c r="E53" s="199">
         <v>0.21510000000000001</v>
       </c>
-      <c r="F53" s="77">
+      <c r="F53" s="71">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="G53" s="232">
+      <c r="G53" s="200">
         <f>E53*H44/100</f>
         <v>0.75285000000000013</v>
       </c>
-      <c r="H53" s="233"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="201"/>
+      <c r="I53" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="206"/>
-    </row>
-    <row r="54" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1">
-      <c r="A54" s="235"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="236"/>
-      <c r="D54" s="81" t="s">
+      <c r="J53" s="177"/>
+    </row>
+    <row r="54" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="A54" s="203"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="204"/>
+      <c r="D54" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="237">
+      <c r="E54" s="205">
         <f>SUM(E49:E53)</f>
         <v>100.90450000000001</v>
       </c>
-      <c r="F54" s="238">
+      <c r="F54" s="206">
         <f>SUM(F50:F53)</f>
         <v>2.5001999999999995</v>
       </c>
-      <c r="G54" s="239">
+      <c r="G54" s="207">
         <f>SUM(G49:G53)</f>
         <v>353.16575</v>
       </c>
-      <c r="H54" s="237"/>
-      <c r="J54" s="240"/>
-    </row>
-    <row r="55" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1">
-      <c r="A55" s="88" t="s">
+      <c r="H54" s="205"/>
+      <c r="J54" s="208"/>
+    </row>
+    <row r="55" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="A55" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="93" t="s">
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="94"/>
-      <c r="J55" s="95"/>
-    </row>
-    <row r="56" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
+    </row>
+    <row r="56" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="A56" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="98" t="s">
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="100" t="s">
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="I56" s="69"/>
-      <c r="J56" s="101"/>
-    </row>
-    <row r="57" spans="1:10" s="28" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A57" s="102" t="s">
+      <c r="I56" s="64"/>
+      <c r="J56" s="95"/>
+    </row>
+    <row r="57" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A57" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="40" t="s">
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="107"/>
-    </row>
-    <row r="58" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="196" t="s">
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="101"/>
+    </row>
+    <row r="58" spans="1:10" s="29" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A58" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="197"/>
-      <c r="C58" s="197"/>
-      <c r="D58" s="197"/>
-      <c r="E58" s="197"/>
-      <c r="F58" s="197"/>
-      <c r="G58" s="197"/>
-      <c r="H58" s="197"/>
-      <c r="I58" s="197"/>
-      <c r="J58" s="199"/>
-    </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A59" s="241" t="s">
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="171"/>
+    </row>
+    <row r="59" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A59" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="242" t="s">
+      <c r="B59" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="135" t="s">
+      <c r="D59" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="136" t="s">
+      <c r="E59" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="136"/>
-      <c r="G59" s="137" t="s">
+      <c r="F59" s="127"/>
+      <c r="G59" s="259" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="243"/>
-    </row>
-    <row r="60" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A60" s="244" t="s">
+      <c r="H59" s="260"/>
+      <c r="I59" s="260"/>
+      <c r="J59" s="261"/>
+    </row>
+    <row r="60" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A60" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="245" t="s">
+      <c r="B60" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="143" t="s">
+      <c r="C60" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="143" t="s">
+      <c r="D60" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="144" t="s">
+      <c r="E60" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="144"/>
-      <c r="G60" s="246"/>
-      <c r="H60" s="247"/>
-      <c r="I60" s="247"/>
-      <c r="J60" s="248"/>
-    </row>
-    <row r="61" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A61" s="249" t="s">
+      <c r="F60" s="132"/>
+      <c r="G60" s="262"/>
+      <c r="H60" s="263"/>
+      <c r="I60" s="263"/>
+      <c r="J60" s="264"/>
+    </row>
+    <row r="61" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A61" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="250" t="s">
+      <c r="B61" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="150" t="s">
+      <c r="C61" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="251"/>
-      <c r="E61" s="136" t="s">
+      <c r="D61" s="215"/>
+      <c r="E61" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="F61" s="136"/>
-      <c r="G61" s="252" t="s">
+      <c r="F61" s="127"/>
+      <c r="G61" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="I61" s="253"/>
-      <c r="J61" s="254"/>
-    </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A62" s="255"/>
-      <c r="B62" s="93" t="s">
+      <c r="I61" s="217"/>
+      <c r="J61" s="218"/>
+    </row>
+    <row r="62" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A62" s="219"/>
+      <c r="B62" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="155" t="s">
+      <c r="C62" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="256"/>
-      <c r="E62" s="156" t="s">
+      <c r="D62" s="220"/>
+      <c r="E62" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="F62" s="156"/>
-      <c r="G62" s="257" t="s">
+      <c r="F62" s="139"/>
+      <c r="G62" s="221" t="s">
         <v>79</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
-      <c r="J62" s="158"/>
-    </row>
-    <row r="63" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A63" s="258"/>
-      <c r="B63" s="259" t="s">
+      <c r="J62" s="141"/>
+    </row>
+    <row r="63" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A63" s="222"/>
+      <c r="B63" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="165" t="s">
+      <c r="C63" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="260"/>
-      <c r="E63" s="261" t="s">
+      <c r="D63" s="224"/>
+      <c r="E63" s="225" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="262"/>
-      <c r="G63" s="263" t="s">
+      <c r="F63" s="226"/>
+      <c r="G63" s="227" t="s">
         <v>82</v>
       </c>
-      <c r="H63" s="192"/>
-      <c r="I63" s="264"/>
-      <c r="J63" s="265"/>
-    </row>
-    <row r="64" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A64" s="196" t="s">
+      <c r="H63" s="165"/>
+      <c r="I63" s="228"/>
+      <c r="J63" s="229"/>
+    </row>
+    <row r="64" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A64" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="197"/>
-      <c r="C64" s="197"/>
-      <c r="D64" s="266"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
-      <c r="G64" s="266"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="266"/>
-      <c r="J64" s="267"/>
-    </row>
-    <row r="65" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A65" s="268"/>
-      <c r="B65" s="269"/>
-      <c r="C65" s="269"/>
-      <c r="D65" s="269"/>
-      <c r="E65" s="269"/>
-      <c r="F65" s="269"/>
-      <c r="G65" s="269"/>
-      <c r="H65" s="269"/>
-      <c r="I65" s="269"/>
-      <c r="J65" s="270"/>
-    </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A66" s="271"/>
-      <c r="B66" s="272"/>
-      <c r="C66" s="272"/>
-      <c r="D66" s="272"/>
-      <c r="E66" s="272"/>
-      <c r="F66" s="272"/>
-      <c r="G66" s="272"/>
-      <c r="H66" s="272"/>
-      <c r="I66" s="273"/>
-      <c r="J66" s="274"/>
-    </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A67" s="271"/>
-      <c r="B67" s="272"/>
-      <c r="C67" s="272"/>
-      <c r="D67" s="272"/>
-      <c r="E67" s="272"/>
-      <c r="F67" s="272"/>
-      <c r="G67" s="272"/>
-      <c r="H67" s="272"/>
-      <c r="I67" s="273"/>
-      <c r="J67" s="274"/>
-    </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A68" s="275"/>
-      <c r="B68" s="276"/>
-      <c r="C68" s="276"/>
-      <c r="D68" s="277"/>
-      <c r="E68" s="278"/>
-      <c r="F68" s="277"/>
-      <c r="G68" s="272"/>
-      <c r="H68" s="272"/>
-      <c r="I68" s="273"/>
-      <c r="J68" s="274"/>
-    </row>
-    <row r="69" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A69" s="275"/>
-      <c r="B69" s="279"/>
-      <c r="C69" s="279"/>
-      <c r="D69" s="280"/>
-      <c r="E69" s="280"/>
-      <c r="F69" s="279"/>
-      <c r="G69" s="272"/>
-      <c r="H69" s="272"/>
-      <c r="I69" s="273"/>
-      <c r="J69" s="281"/>
-    </row>
-    <row r="70" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A70" s="275"/>
-      <c r="B70" s="279"/>
-      <c r="C70" s="279"/>
-      <c r="D70" s="279"/>
-      <c r="E70" s="279"/>
-      <c r="F70" s="279"/>
-      <c r="G70" s="272"/>
-      <c r="H70" s="272"/>
-      <c r="I70" s="273"/>
-      <c r="J70" s="274"/>
-    </row>
-    <row r="71" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A71" s="271"/>
-      <c r="B71" s="272"/>
-      <c r="C71" s="272"/>
-      <c r="D71" s="272"/>
-      <c r="E71" s="272"/>
-      <c r="F71" s="272"/>
-      <c r="G71" s="272"/>
-      <c r="H71" s="272"/>
-      <c r="I71" s="273"/>
-      <c r="J71" s="281"/>
-    </row>
-    <row r="72" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A72" s="282"/>
-      <c r="B72" s="283"/>
-      <c r="C72" s="283"/>
-      <c r="D72" s="283"/>
-      <c r="E72" s="283"/>
-      <c r="F72" s="283"/>
-      <c r="G72" s="284"/>
-      <c r="H72" s="284"/>
-      <c r="I72" s="284"/>
-      <c r="J72" s="285"/>
-    </row>
-    <row r="73" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A73" s="282"/>
-      <c r="B73" s="283"/>
-      <c r="C73" s="283"/>
-      <c r="D73" s="283"/>
-      <c r="E73" s="283"/>
-      <c r="F73" s="283"/>
-      <c r="G73" s="283"/>
-      <c r="H73" s="284"/>
-      <c r="I73" s="284"/>
-      <c r="J73" s="285"/>
-    </row>
-    <row r="74" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A74" s="282"/>
-      <c r="B74" s="283"/>
-      <c r="C74" s="283"/>
-      <c r="D74" s="283"/>
-      <c r="E74" s="283"/>
-      <c r="F74" s="283"/>
-      <c r="G74" s="283"/>
-      <c r="H74" s="284"/>
-      <c r="I74" s="284"/>
-      <c r="J74" s="285"/>
-    </row>
-    <row r="75" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A75" s="282"/>
-      <c r="B75" s="283"/>
-      <c r="C75" s="283"/>
-      <c r="D75" s="283"/>
-      <c r="E75" s="283"/>
-      <c r="F75" s="283"/>
-      <c r="G75" s="283"/>
-      <c r="H75" s="283"/>
-      <c r="I75" s="283"/>
-      <c r="J75" s="286"/>
-    </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A76" s="287"/>
-      <c r="B76" s="288"/>
-      <c r="C76" s="288"/>
-      <c r="D76" s="288"/>
-      <c r="E76" s="288"/>
-      <c r="F76" s="288"/>
-      <c r="G76" s="288"/>
-      <c r="H76" s="288"/>
-      <c r="I76" s="288"/>
-      <c r="J76" s="289"/>
-    </row>
-    <row r="77" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A77" s="170" t="s">
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="230"/>
+      <c r="E64" s="230"/>
+      <c r="F64" s="230"/>
+      <c r="G64" s="230"/>
+      <c r="H64" s="230"/>
+      <c r="I64" s="230"/>
+      <c r="J64" s="231"/>
+    </row>
+    <row r="65" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A65" s="232"/>
+      <c r="B65" s="233"/>
+      <c r="C65" s="233"/>
+      <c r="D65" s="233"/>
+      <c r="E65" s="233"/>
+      <c r="F65" s="233"/>
+      <c r="G65" s="233"/>
+      <c r="H65" s="233"/>
+      <c r="I65" s="233"/>
+      <c r="J65" s="234"/>
+    </row>
+    <row r="66" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A66" s="235"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="236"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="236"/>
+      <c r="F66" s="236"/>
+      <c r="G66" s="236"/>
+      <c r="H66" s="236"/>
+      <c r="I66" s="237"/>
+      <c r="J66" s="238"/>
+    </row>
+    <row r="67" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A67" s="235"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="236"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="236"/>
+      <c r="F67" s="236"/>
+      <c r="G67" s="236"/>
+      <c r="H67" s="236"/>
+      <c r="I67" s="237"/>
+      <c r="J67" s="238"/>
+    </row>
+    <row r="68" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A68" s="239"/>
+      <c r="B68" s="240"/>
+      <c r="C68" s="240"/>
+      <c r="D68" s="241"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="241"/>
+      <c r="G68" s="236"/>
+      <c r="H68" s="236"/>
+      <c r="I68" s="237"/>
+      <c r="J68" s="238"/>
+    </row>
+    <row r="69" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A69" s="239"/>
+      <c r="B69" s="243"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="244"/>
+      <c r="E69" s="244"/>
+      <c r="F69" s="243"/>
+      <c r="G69" s="236"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="237"/>
+      <c r="J69" s="245"/>
+    </row>
+    <row r="70" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A70" s="239"/>
+      <c r="B70" s="243"/>
+      <c r="C70" s="243"/>
+      <c r="D70" s="243"/>
+      <c r="E70" s="243"/>
+      <c r="F70" s="243"/>
+      <c r="G70" s="236"/>
+      <c r="H70" s="236"/>
+      <c r="I70" s="237"/>
+      <c r="J70" s="238"/>
+    </row>
+    <row r="71" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A71" s="235"/>
+      <c r="B71" s="236"/>
+      <c r="C71" s="236"/>
+      <c r="D71" s="236"/>
+      <c r="E71" s="236"/>
+      <c r="F71" s="236"/>
+      <c r="G71" s="236"/>
+      <c r="H71" s="236"/>
+      <c r="I71" s="237"/>
+      <c r="J71" s="245"/>
+    </row>
+    <row r="72" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A72" s="246"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="247"/>
+      <c r="E72" s="247"/>
+      <c r="F72" s="247"/>
+      <c r="G72" s="248"/>
+      <c r="H72" s="248"/>
+      <c r="I72" s="248"/>
+      <c r="J72" s="249"/>
+    </row>
+    <row r="73" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A73" s="246"/>
+      <c r="B73" s="247"/>
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="247"/>
+      <c r="F73" s="247"/>
+      <c r="G73" s="247"/>
+      <c r="H73" s="248"/>
+      <c r="I73" s="248"/>
+      <c r="J73" s="249"/>
+    </row>
+    <row r="74" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A74" s="246"/>
+      <c r="B74" s="247"/>
+      <c r="C74" s="247"/>
+      <c r="D74" s="247"/>
+      <c r="E74" s="247"/>
+      <c r="F74" s="247"/>
+      <c r="G74" s="247"/>
+      <c r="H74" s="248"/>
+      <c r="I74" s="248"/>
+      <c r="J74" s="249"/>
+    </row>
+    <row r="75" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A75" s="246"/>
+      <c r="B75" s="247"/>
+      <c r="C75" s="247"/>
+      <c r="D75" s="247"/>
+      <c r="E75" s="247"/>
+      <c r="F75" s="247"/>
+      <c r="G75" s="247"/>
+      <c r="H75" s="247"/>
+      <c r="I75" s="247"/>
+      <c r="J75" s="250"/>
+    </row>
+    <row r="76" spans="1:10" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A76" s="251"/>
+      <c r="B76" s="252"/>
+      <c r="C76" s="252"/>
+      <c r="D76" s="252"/>
+      <c r="E76" s="252"/>
+      <c r="F76" s="252"/>
+      <c r="G76" s="252"/>
+      <c r="H76" s="252"/>
+      <c r="I76" s="252"/>
+      <c r="J76" s="253"/>
+    </row>
+    <row r="77" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A77" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="172" t="s">
+      <c r="B77" s="260"/>
+      <c r="C77" s="260"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="152" t="s">
+      <c r="F77" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="H77" s="173"/>
+      <c r="H77" s="151"/>
       <c r="I77" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J77" s="153"/>
-    </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A78" s="174"/>
-      <c r="B78" s="175"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="176"/>
-      <c r="E78" s="177" t="s">
+      <c r="J77" s="137"/>
+    </row>
+    <row r="78" spans="1:10" s="25" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A78" s="266"/>
+      <c r="B78" s="267"/>
+      <c r="C78" s="267"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="178" t="s">
+      <c r="F78" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="G78" s="179"/>
-      <c r="H78" s="179"/>
-      <c r="I78" s="180" t="s">
+      <c r="G78" s="155"/>
+      <c r="H78" s="155"/>
+      <c r="I78" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="J78" s="181"/>
-    </row>
-    <row r="79" spans="1:10" s="28" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A79" s="182" t="s">
+      <c r="J78" s="157"/>
+    </row>
+    <row r="79" spans="1:10" s="25" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A79" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="182"/>
-      <c r="C79" s="182"/>
-      <c r="D79" s="183"/>
-      <c r="E79" s="183"/>
-      <c r="F79" s="183"/>
-      <c r="G79" s="183"/>
-      <c r="H79" s="183"/>
-      <c r="I79" s="184" t="s">
+      <c r="B79" s="158"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="159"/>
+      <c r="F79" s="159"/>
+      <c r="G79" s="159"/>
+      <c r="H79" s="159"/>
+      <c r="I79" s="268" t="s">
         <v>93</v>
       </c>
-      <c r="J79" s="185"/>
+      <c r="J79" s="269"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5877,21 +5871,21 @@
     <protectedRange sqref="C4" name="Range1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="G30:J31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="G59:J60"/>
     <mergeCell ref="A77:C78"/>
     <mergeCell ref="I79:J79"/>
-    <mergeCell ref="G30:J31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <pageMargins left="0.196850393700787" right="0.15748031496063" top="0.10433070899999999" bottom="0.196850393700787" header="0.15748031496063" footer="0.15748031496063"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
